--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A156"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,749 +698,833 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin OSHClub BOX HILL SOUTH</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Roberts McCubbin OSHClub BOX HILL SOUTH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Victoria Road OSHClub LILYDALE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
+          <t>li: Victoria Road OSHClub LILYDALE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: West Hawthorn Early Childhood Centre HAWTHORN</t>
+          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
+          <t>li: West Hawthorn Early Childhood Centre HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Kew High School, KEW</t>
+          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
+          <t>li: Glen Iris Primary School, GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Kew High School, KEW</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Gumboots Early Learning Sunbury SUNBURY</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Gumboots Early Learning Sunbury SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SchoolsThe Department hasbeen advised of the following school closures:</t>
+          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Charles La Trobe, MACLEOD WEST</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Diamond Valley College, DIAMOND REEK</t>
+          <t>SchoolsThe Department hasbeen advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Epping Secondary College, EPPING</t>
+          <t>li: Al Siraat College, EPPING</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Fitzroy High School, FITZROY</t>
+          <t>li: Charles La Trobe, MACLEOD WEST</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Gladstone Park Secondary College</t>
+          <t>li: Diamond Valley College, DIAMOND REEK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Macleod College, MACLEOD</t>
+          <t>li: Epping Secondary College, EPPING</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Moomba Primary School, FAWKNER</t>
+          <t>li: Fitzroy High School, FITZROY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Newbury Primary School, CRAGIEBURN</t>
+          <t>li: Fitzroy Primary School, FITZROY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Northcote High School, NORTHCOTE</t>
+          <t>li: Gladstone Park Secondary College</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Northern College of Arts and Technology (NCAT), PRESTON</t>
+          <t>li: Macleod College, MACLEOD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Pascoe Vale Girls Secondary College, OAK PARK</t>
+          <t>li: Moomba Primary School, FAWKNER</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Princes Hill Secondary College, PRINCES HILL</t>
+          <t>li: Newbury Primary School, CRAGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Roxburgh College, ROXBURGH PARK</t>
+          <t>li: Northcote High School, NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Northern College of Arts and Technology (NCAT), PRESTON</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Pascoe Vale Girls Secondary College, OAK PARK</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Penders Grove Primary School, THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Amici - Westbourne Early Learning Centre HOPPERS CROSSING</t>
+          <t>li: Princes Hill Secondary College, PRINCES HILL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Roxburgh College, ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Amici - Westbourne Early Learning Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Explorers Early Learning - Williams Landing WILLIAMS LANDING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Explorers Early Learning - Williams Landing WILLIAMS LANDING</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
+          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Kealba KEALBA</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Goodstart Early Learning Kealba KEALBA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Wallaby Childcare Harpley Werribee</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Williamstown Community and Education Centre Occasional Care WILLIAMSTOWN</t>
+          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Winifred Nance Kindergarten COLAC</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Yara Childcare Centres TRUGANINA</t>
+          <t>li: Wallaby Childcare Harpley Werribee</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>li: Williamstown Community and Education Centre Occasional Care WILLIAMSTOWN</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Clonard Secondary College, GEELONG WEST</t>
+          <t>li: Winifred Nance Kindergarten COLAC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
+          <t>li: Yara Childcare Centres TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+          <t>Schools closedThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Parkville College (Malmsbury Campus), PARKVILLE</t>
+          <t>li: Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
+          <t>li: Catholic Regional College, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Trinity College, COLAC</t>
+          <t>li: Clonard Secondary College, GEELONG WEST</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Victorian College of the Arts, ALBERT PARK</t>
+          <t>li: Copperfield College, DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterationsFor Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.Find more about bus services:School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to topLast Update: 22 July 2020Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;+          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>li: Grovedale West Primary School, GROVEDALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>li: St Brigid's College, HORSHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>li: Tarneit Senior College, TARNEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>li: Thomas Carr College, TARNEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>li: Trinity College, COLAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>li: Victorian College of the Arts, ALBERT PARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterationsFor Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.Find more about bus services:School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to topLast Update: 23 July 2020Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State                                                                    &lt;/a&gt;@@ -1448,15 +1532,15 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A168"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,1162 +369,1309 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Closures/remote learning and relocationsGoogle Tag Manager (noscript)End Google Tag Manager (noscript)You may be trying to access this site from a secured browser on the server. Please enable scripts and reload this page.Start of Site headerSkip to contentSearchSearchEnd of Site headerHome&gt;The Department&gt;Program directory&gt;Emergencies and Natural Disasters&gt;Closures/remote learning and relocationsClosures/remote learning and relocations- Example page content area using current sharepoint wrapperPage ContentThis page lists early childhood services, schools and TAFEs that are currently closed.SeeCoronavirus advicefor the latest advice on the outbreak of COVID-19 (coronavirus).On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterations*Please note these closures are NOT all related to the Covid-19 pandemic.School and early childhood service, TAFE closures and relocations for Thursday 23 July 2020South-Eastern Victoria RegionEarly childhood servicesThe Department has been advised of the followingearly childhood serviceclosures:</t>
+          <t>Closures/remote learning and relocationsGoogle Tag Manager (noscript)End Google Tag Manager (noscript)You may be trying to access this site from a secured browser on the server. Please enable scripts and reload this page.Start of Site headerSkip to contentSearchSearchEnd of Site headerHome&gt;The Department&gt;Program directory&gt;Emergencies and Natural Disasters&gt;Closures/remote learning and relocationsClosures/remote learning and relocations- Example page content area using current sharepoint wrapperPage Content</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>li: Ada Mary A'beckett Children's Centre Inc PORT MELBOURNE</t>
+          <t>li: This page lists early childhood services, schools and TAFEs that are currently closed.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>li: Aqua Energy Creche SALE</t>
+          <t>*Please note these closures are NOT all related to the Covid-19 pandemic.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
+          <t>li: See</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
+          <t>Coronavirus advice</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: for the latest advice on the outbreak of COVID-19 (coronavirus).</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Monday 27 July 2020South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: The Department has been advised of the following</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>early childhood service</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: closures:</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Ada Mary A'beckett Children's Centre Inc PORT MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Aqua Energy Creche SALE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
+          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Elwood Children's Centre ELWOOD</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Clark Street Children's Centre PORT MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Hope Frankston Heights FRANKSTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Elwood Children's Centre ELWOOD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Niño Early Learning Adventures - Malvern East MALVERN EAST</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Only About Children Cheltenham CHELTENHAM</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Hope Frankston Heights FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Only About Children Cheltenham CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Yavneh College TheirCare ELSTERNWICK</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Yavneh College TheirCare ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Graying Primary School, CLYDE NORTH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin OSHClub BOX HILL SOUTH</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Victoria Road OSHClub LILYDALE</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: West Hawthorn Early Childhood Centre HAWTHORN</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Glen Iris Primary School, GLEN IRIS</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Kew High School, KEW</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Roberts McCubbin OSHClub BOX HILL SOUTH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Victoria Road OSHClub LILYDALE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Glen Iris Primary School, GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Gumboots Early Learning Sunbury SUNBURY</t>
+          <t>li: Kew High School, KEW</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SchoolsThe Department hasbeen advised of the following school closures:</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Al Siraat College, EPPING</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Charles La Trobe, MACLEOD WEST</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Diamond Valley College, DIAMOND REEK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Epping Secondary College, EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Fitzroy High School, FITZROY</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Fitzroy Primary School, FITZROY</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Gladstone Park Secondary College</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Macleod College, MACLEOD</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Moomba Primary School, FAWKNER</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Newbury Primary School, CRAGIEBURN</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Northcote High School, NORTHCOTE</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Northern College of Arts and Technology (NCAT), PRESTON</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Pascoe Vale Girls Secondary College, OAK PARK</t>
+          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Penders Grove Primary School, THORNBURY</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Princes Hill Secondary College, PRINCES HILL</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Roxburgh College, ROXBURGH PARK</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Amici - Westbourne Early Learning Centre HOPPERS CROSSING</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND REEKEpping Secondary College, EPPINGFitzroy High School, FITZROYFitzroy Primary School, FITZROYMacleod College, MACLEODNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLSacred Heart School, FITZROYRoxburgh College, ROXBURGH PARKWatsonia Primary School, WATSONIATAFE</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Explorers Early Learning - Williams Landing WILLIAMS LANDING</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
+          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Kealba KEALBA</t>
+          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
+          <t>li: Goodstart Early Learning Kealba KEALBA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Wallaby Childcare Harpley Werribee</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Williamstown Community and Education Centre Occasional Care WILLIAMSTOWN</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Winifred Nance Kindergarten COLAC</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Yara Childcare Centres TRUGANINA</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: North Sunshine Kindergarten SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Catholic Regional College, SYDENHAM</t>
+          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Clonard Secondary College, GEELONG WEST</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Copperfield College, DELAHEY</t>
+          <t>li: Wallaby Childcare Harpley Werribee</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
+          <t>li: Winifred Nance Kindergarten COLAC</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School, GROVEDALE</t>
+          <t>li: Yara Childcare Centres TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: St Brigid's College, HORSHAM</t>
+          <t>li: Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
+          <t>li: Catholic Regional College, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
+          <t>li: Clonard Secondary College, GEELONG WEST</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Thomas Carr College, TARNEIT</t>
+          <t>li: Copperfield College, DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Trinity College, COLAC</t>
+          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Victorian College of the Arts, ALBERT PARK</t>
+          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterationsFor Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.Find more about bus services:School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to topLast Update: 23 July 2020Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;+          <t>li: Grovedale West Primary School, GROVEDALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>li: Point Cook Senior Secondary College, POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>li: St Brigid's College, HORSHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>li: Tarneit Senior College, TARNEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>li: Thomas Carr College, TARNEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>li: Victorian College of the Arts, ALBERT PARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>li: The Department has</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>li: been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>li: Last Update: 24 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State                                                                    &lt;/a&gt;@@ -1532,17 +1679,31 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A191"/>
+  <dimension ref="A1:A193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,747 +929,761 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND REEKEpping Secondary College, EPPINGFitzroy High School, FITZROYFitzroy Primary School, FITZROYMacleod College, MACLEODNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLSacred Heart School, FITZROYRoxburgh College, ROXBURGH PARKWatsonia Primary School, WATSONIATAFE</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND REEKEpping Secondary College, EPPINGFitzroy High School, FITZROYFitzroy Primary School, FITZROYLalor Secondary College, LALORMacleod College, MACLEODNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLSacred Heart School, FITZROYRoxburgh College, ROXBURGH PARKWatsonia Primary School, WATSONIATAFE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
+          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Kealba KEALBA</t>
+          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
+          <t>li: Goodstart Early Learning Kealba KEALBA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: North Sunshine Kindergarten SUNSHINE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: North Sunshine Kindergarten SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Wallaby Childcare Harpley Werribee</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Wallaby Childcare Harpley Werribee</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Winifred Nance Kindergarten COLAC</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Yara Childcare Centres TRUGANINA</t>
+          <t>li: Winifred Nance Kindergarten COLAC</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Yara Childcare Centres TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Catholic Regional College, SYDENHAM</t>
+          <t>li: Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Clonard Secondary College, GEELONG WEST</t>
+          <t>li: Catholic Regional College, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Copperfield College, DELAHEY</t>
+          <t>li: Clonard Secondary College, GEELONG WEST</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
+          <t>li: Copperfield College, DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
+          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School, GROVEDALE</t>
+          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
+          <t>li: Grovedale West Primary School, GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
+          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Point Cook Senior Secondary College, POINT COOK</t>
+          <t>li: Mary McKillop College, WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: St Brigid's College, HORSHAM</t>
+          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
+          <t>li: Point Cook Senior Secondary College, POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
+          <t>li: St Brigid's College, HORSHAM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Thomas Carr College, TARNEIT</t>
+          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Victorian College of the Arts, ALBERT PARK</t>
+          <t>li: Tarneit Senior College, TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Thomas Carr College, TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Victorian College of the Arts, ALBERT PARK</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Last Update: 24 July 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>li: Last Update: 26 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1679,29 +1693,29 @@
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A193"/>
+  <dimension ref="A1:A199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,943 +747,985 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Graying Primary School, CLYDE NORTH</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Grayling Primary School, CLYDE NORTH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Parkdale Primary School, PARKDALE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin OSHClub BOX HILL SOUTH</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Victoria Road OSHClub LILYDALE</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Glen Iris Primary School, GLEN IRIS</t>
+          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Kew High School, KEW</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>li: Ashwood High School, BURWOOD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
+          <t>li: Auburn high School, HAWTHORN EAST</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Glen Iris Primary School, GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Kew High School, KEW</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Vermont Primary School, VERMONT</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: Wattle Park Primary School, BURWOOD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND REEKEpping Secondary College, EPPINGFitzroy High School, FITZROYFitzroy Primary School, FITZROYLalor Secondary College, LALORMacleod College, MACLEODNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLSacred Heart School, FITZROYRoxburgh College, ROXBURGH PARKWatsonia Primary School, WATSONIATAFE</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND REEKEpping Secondary College, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKLalor Secondary College, LALORMacleod College, MACLEODMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLSacred Heart School, FITZROYRoxburgh College, ROXBURGH PARKWatsonia Primary School, WATSONIATAFE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Glen Gala Children's Centre SUNSHINE WEST</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Grovedale - Pioneer Road GROVEDALE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Kealba KEALBA</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: North Sunshine Kindergarten SUNSHINE</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: North Sunshine Kindergarten SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Wallaby Childcare Harpley Werribee</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Winifred Nance Kindergarten COLAC</t>
+          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Yara Childcare Centres TRUGANINA</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Winifred Nance Kindergarten COLAC</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Catholic Regional College, SYDENHAM</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Clonard Secondary College, GEELONG WEST</t>
+          <t>li: Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Copperfield College, DELAHEY</t>
+          <t>li: Catholic Regional College, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
+          <t>li: Clonard Secondary College, GEELONG WEST</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
+          <t>li: Copperfield College Delahey Campus, DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School, GROVEDALE</t>
+          <t>li: Cofferfield College Sydenham Campus,</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
+          <t>DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Mary McKillop College, WERRIBEE</t>
+          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
+          <t>li: Grovedale West Primary School, GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Point Cook Senior Secondary College, POINT COOK</t>
+          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: St Brigid's College, HORSHAM</t>
+          <t>li: Keilor Downs Secondary College, KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
+          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
+          <t>li: Mary McKillop College, WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Thomas Carr College, TARNEIT</t>
+          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Victorian College of the Arts, ALBERT PARK</t>
+          <t>li: Point Cook Senior Secondary College, POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: St Alban's Secondary College, ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: St Brigid's College, HORSHAM</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Tarneit Senior College, TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: Thomas Carr College, TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Victorian College of the Arts, ALBERT PARK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Last Update: 26 July 2020</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
+        <is>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>li: Last Update: 27 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1693,29 +1735,29 @@
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A199"/>
+  <dimension ref="A1:A184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Monday 27 July 2020South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Tuesday 28 July 2020South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -733,84 +733,84 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Yavneh College TheirCare ELSTERNWICK</t>
+          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Grayling Primary School, CLYDE NORTH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Grayling Primary School, CLYDE NORTH</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Parkdale Primary School, PARKDALE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Parkdale Primary School, PARKDALE</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
@@ -859,448 +859,448 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Wattle Park Children's Services Centre BURWOOD</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Ashwood High School, BURWOOD</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Auburn high School, HAWTHORN EAST</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Canterbury Girl's Secondary College, CANTERBURY</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Glen Iris Primary School, GLEN IRIS</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Kew High School, KEW</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>Mount Waverley Primary School, MOUNT WAVERLEYVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Roberts McCubbin Primary School, BOX HILL SOUTH</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School, VERMONT</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Wattle Park Primary School, BURWOOD</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Gisborne Montessori School NEW GISBORNE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Only About Children Coonans Hill PASCOE VALE SOUTH</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGFitzroy High School, FITZROYFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND REEKEpping Secondary College, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKLalor Secondary College, LALORMacleod College, MACLEODMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLSacred Heart School, FITZROYRoxburgh College, ROXBURGH PARKWatsonia Primary School, WATSONIATAFE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
         </is>
       </c>
     </row>
@@ -1328,404 +1328,299 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Footscray PS TheirCare FOOTSCRAY</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Footscray West PS TheirCare WEST FOOTSCRAY</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Lowther Hall OSHClub ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: North Sunshine Kindergarten SUNSHINE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: North Sunshine Kindergarten SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: St Vincent de Paul TheirCare STRATHMORE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Winifred Nance Kindergarten COLAC</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Winifred Nance Kindergarten COLAC</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Catholic Regional College, SYDENHAM</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Clonard Secondary College, GEELONG WEST</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Copperfield College Delahey Campus, DELAHEY</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Cofferfield College Sydenham Campus,</t>
+          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCofferfield College Sydenham Campus,DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DELAHEY</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Footscray Primary School and OSHC, FOOTSCRAY</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Footscray West Primary School, FOOTSCARY WEST</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School, GROVEDALE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Lowther Hall Anglican Grammar School, ESSENDON</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Keilor Downs Secondary College, KEILOR DOWNS</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Manor Lakes P-12 College, WYNDHAM VALE</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Mary McKillop College, WERRIBEE</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Parkville College (Parkville and Malmsbury Campus)</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Point Cook Senior Secondary College, POINT COOK</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: St Alban's Secondary College, ST ALBANS</t>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: St Brigid's College, HORSHAM</t>
+          <t>li: Last Update: 28 July 2020</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
-        <is>
-          <t>li: Sydenham Hillside Primary School, SYDENHAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>li: Thomas Carr College, TARNEIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>li: Victorian College of the Arts, ALBERT PARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>TAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>li: The Department has</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>li: been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>li: Last Update: 27 July 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1735,29 +1630,29 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -1160,7 +1160,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGFitzroy High School, FITZROYFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A184"/>
+  <dimension ref="A1:A187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Tuesday 28 July 2020South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Wednesday 29 July 2020South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -439,56 +439,56 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>li: Ada Mary A'beckett Children's Centre Inc PORT MELBOURNE</t>
+          <t>li: Aqua Energy Creche SALE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>li: Aqua Energy Creche SALE</t>
+          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
+          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
@@ -509,1118 +509,1139 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Parkdale Primary School OSHC PARKDALE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Thomas Mitchell Primary School OSHC ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Clark Street Children's Centre PORT MELBOURNE</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Elwood Children's Centre ELWOOD</t>
+          <t>li: Clark Street Children's Centre PORT MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Elwood Children's Centre ELWOOD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Hope Frankston Heights FRANKSTON</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Hope Frankston Heights FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Only About Children Cheltenham CHELTENHAM</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Only About Children Cheltenham CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Cheltenham East Primary School, CHELTEMHAM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Grayling Primary School, CLYDE NORTH</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Parkdale Primary School, PARKDALE</t>
+          <t>li: Grayling Primary School, CLYDE NORTH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Parkdale Primary School, PARKDALE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mount Waverley Primary School, MOUNT WAVERLEYVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>Mount Waverley Primary School, MOUNT WAVERLEYVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Gisborne Montessori School NEW GISBORNE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Colac East Kindergarten COLAC</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Hopetoun Early Years Centre FLEMINGTON</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Lowther Hall OSHClub ESSENDON</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: North Sunshine Kindergarten SUNSHINE</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Winifred Nance Kindergarten COLAC</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCofferfield College Sydenham Campus,DELAHEY</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCofferfield College Sydenham Campus,DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Last Update: 28 July 2020</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>li: Last Update: 28 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1630,29 +1651,29 @@
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
     <row r="184">
       <c r="A184" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -810,7 +810,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Leibler Yavneh College, ELSTERNWICK</t>
+          <t>li: Mac Robertson Girl's College, MELBOURNE</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTCanterbury Girls Secondary College, CANTERBURYGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONOur Lady of the Way, WALLANPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Last Update: 28 July 2020</t>
+          <t>li: Last Update: 29 July 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Wednesday 29 July 2020South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Thursday 30 July 2020South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -467,105 +467,105 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Parkdale Primary School OSHC PARKDALE</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Parkdale Primary School OSHC PARKDALE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomas Mitchell Primary School OSHC ENDEAVOUR HILLS</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Thomas Mitchell Primary School OSHC ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Clark Street Children's Centre PORT MELBOURNE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
@@ -873,35 +873,35 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
@@ -950,698 +950,719 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTCanterbury Girls Secondary College, CANTERBURYGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTCanterbury Girls Secondary College, CANTERBURYGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mount Waverley Primary School, MOUNT WAVERLEYVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Mount Waverley Primary School, MOUNT WAVERLEYVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONOur Lady of the Way, WALLANPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONOur Lady of the Way, WALLANPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Colac East Kindergarten COLAC</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCofferfield College Sydenham Campus,DELAHEY</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCofferfield College Sydenham Campus,DELAHEY</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Last Update: 29 July 2020</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>li: Last Update: 29 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1651,29 +1672,29 @@
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
     <row r="187">
       <c r="A187" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A190"/>
+  <dimension ref="A1:A192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,915 +754,929 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Cheltenham East Primary School, CHELTEMHAM</t>
+          <t>li: CBC, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>li: Cheltenham East Primary School, CHELTEMHAM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Grayling Primary School, CLYDE NORTH</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Grayling Primary School, CLYDE NORTH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Mac Robertson Girl's College, MELBOURNE</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: MacRobertson Girl's College, MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Parkdale Primary School, PARKDALE</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>li: Parkdale Primary School, PARKDALE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>li: PCW, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Ashwood High School, BURWOODAuburn High School, HAWTHORN EASTCanterbury Girls Secondary College, CANTERBURYGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mount Waverley Primary School, MOUNT WAVERLEYVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAshwood High School, BURWOODAuburn High School, HAWTHORN EASTCanterbury Girls Secondary College, CANTERBURYGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Mount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthern College of Arts and Technology (NCAT), PRESTONOur Lady of the Way, WALLANPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYSt Joseph's Primary School, MERNDAThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCofferfield College Sydenham Campus,DELAHEY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORManor Lakes P-12 College, WYNDHAM VALEMary McKillop College, WERRIBEEMelton Secondary College, MELTONNorthcote High School, NORTHCOTEPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Brigid's College, HORSHAMSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
+          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Last Update: 29 July 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>li: Last Update: 29 July 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1672,29 +1686,29 @@
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -761,7 +761,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Cheltenham East Primary School, CHELTEMHAM</t>
+          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
@@ -831,777 +831,777 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Parkdale Primary School, PARKDALE</t>
+          <t>li: PCW, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: PCW, WINDSOR</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAshwood High School, BURWOODAuburn High School, HAWTHORN EASTGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAshwood High School, BURWOODAuburn High School, HAWTHORN EASTCanterbury Girls Secondary College, CANTERBURYGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>Mount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYSt Joseph's Primary School, MERNDAThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTDiamond Valley College, DIAMOND CREEKEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNewbury Primary School, CRAGIEBURNNorthcote High School, NORTHCOTENorthern College of Arts and Technology (NCAT), PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYSt Joseph's Primary School, MERNDAThornbury High School, THORNBURYTAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Al Taqwa College, TRUGANINABelmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINABraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -1209,7 +1209,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYSt Joseph's Primary School, MERNDAThornbury High School, THORNBURYTAFE</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNorthcote High School, NORTHCOTENorthern College of the Arts and Technology, PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYSt Joseph's Primary School, MERNDAThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINABelmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
+          <t>Al Taqwa College, TRUGANINABelmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITVictorian College of the Arts, ALBERT PARKWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Last Update: 29 July 2020</t>
+          <t>li: Last Update: 30 July 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A192"/>
+  <dimension ref="A1:A177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Thursday 30 July 2020South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Friday 31 July 2020South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -467,56 +467,56 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
+          <t>li: Buchan Early Childhood Development Centre BUCHAN</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Parkdale Primary School OSHC PARKDALE</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
@@ -579,350 +579,350 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Elwood Children's Centre ELWOOD</t>
+          <t>li: Dala Yooro BAIRNSDALE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Elwood Children's Centre ELWOOD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Hope Frankston Heights FRANKSTON</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Hope Frankston Heights FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Only About Children Cheltenham CHELTENHAM</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Schools closedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: VERMONT</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: CBC, ST KILDA</t>
+          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
+          <t>li: CBC, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Cranbourne East Primary School, CRAnBOURNE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Grayling Primary School, CLYDE NORTH</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: MacRobertson Girl's College, MELBOURNE</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: MacRobertson Girl's College, MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: PCW, WINDSOR</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>li: PCW, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Templestowe Heights Primary School OSHC TEMPLESTOWE LOWER</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
@@ -978,77 +978,77 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Selby Preschool SELBY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAshwood High School, BURWOODAuburn High School, HAWTHORN EASTGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTH</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAshwood High School, BURWOODAuburn High School, HAWTHORN EASTCroydon Hills Primary School, CroydonGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Mernda OSHC MERNDA</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
@@ -1125,558 +1125,453 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Epping Views Primary School OSHC EPPING</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNorthcote High School, NORTHCOTENorthern College of the Arts and Technology, PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYSt Joseph's Primary School, MERNDAThornbury High School, THORNBURYTAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFindon Primary School, MILL PARKFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNorthcote High School, NORTHCOTENorthern College of the Arts and Technology, PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Melton Christian College OSHC Melton South</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Coragulac &amp; District Kindergarten CORAGULAC</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Bellarine Secondary Collge, DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>Belmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Suzanne Cory High School, WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>Sydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Last Update: 30 July 2020</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
-        <is>
-          <t>li: The Department has been advised of the following school closures:</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Al Taqwa College, TRUGANINABelmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINESydenham Hillside Primary School, SYDENHAMTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALTAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>li: The Department has</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>li: been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>li: Last Update: 30 July 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
         <is>
           <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1686,29 +1581,29 @@
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A177"/>
+  <dimension ref="A1:A198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Closures/remote learning and relocationsGoogle Tag Manager (noscript)End Google Tag Manager (noscript)You may be trying to access this site from a secured browser on the server. Please enable scripts and reload this page.Start of Site headerSkip to contentSearchSearchEnd of Site headerHome&gt;The Department&gt;Program directory&gt;Emergencies and Natural Disasters&gt;Closures/remote learning and relocationsClosures/remote learning and relocations- Example page content area using current sharepoint wrapperPage Content</t>
+          <t>Closures, remote learning and relocationsGoogle Tag Manager (noscript)End Google Tag Manager (noscript)You may be trying to access this site from a secured browser on the server. Please enable scripts and reload this page.Start of Site headerSkip to contentSearchSearchEnd of Site headerHome&gt;The Department&gt;Program directory&gt;Emergencies and Natural Disasters&gt;Closures, remote learning and relocationsClosures, remote learning and relocations</t>
         </is>
       </c>
     </row>
@@ -383,105 +383,105 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>*Please note these closures are NOT all related to the Covid-19 pandemic.</t>
+          <t>Rollup Image</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>li: See</t>
+          <t>li: Closures may be the result of a number of factors including: the Covid-19 pandemic, bushfire preparedness, construction or other factors. More information is available from your local service, school or TAFE.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coronavirus advice</t>
+          <t>li: See</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>li: for the latest advice on the outbreak of COVID-19 (coronavirus).</t>
+          <t>Coronavirus advice</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Friday 31 July 2020South-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: for the latest advice on the outbreak of COVID-19 (coronavirus).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Monday 3 August 2020South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>early childhood service</t>
+          <t>li: The Department has been advised of the following</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>li: closures:</t>
+          <t>early childhood service</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>li: Aqua Energy Creche SALE</t>
+          <t>li: closures:</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
+          <t>li: Aqua Energy Creche SALE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
+          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Buchan Early Childhood Development Centre BUCHAN</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
+          <t>li: Buchan Early Childhood Development Centre BUCHAN</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
         </is>
       </c>
     </row>
@@ -586,588 +586,588 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Elwood Children's Centre ELWOOD</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hope Frankston Heights FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Hope Frankston Heights FRANKSTON</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: VERMONT</t>
+          <t>li: CBC, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: CBC, ST KILDA</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
+          <t>li: Cranbourne East Primary School, CRAnBOURNE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Cranbourne East Primary School, CRAnBOURNE</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: MacRobertson Girl's College, MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: MacRobertson Girl's College, MELBOURNE</t>
+          <t>li: PCW, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: PCW, WINDSOR</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Scoresby Primary School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Selby Preschool SELBY</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAshwood High School, BURWOODAuburn High School, HAWTHORN EASTCroydon Hills Primary School, CroydonGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAshwood High School, BURWOODAuburn High School, HAWTHORN EASTCroydon Hills Primary School, CroydonGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Epping Views Primary School OSHC EPPING</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Epping Views Primary School OSHC EPPING</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
@@ -1272,308 +1272,455 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Burnside Occasional Care BURNSIDE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINA</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Bellarine Secondary Collge, DRYSDALE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Belmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>li: Grovedale West Primary School Outside School Hours Care Program GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINE</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Suzanne Cory High School, WERRIBEE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
+          <t>li: Kelly Club OSHC St Thomas Primary School DRYSDALE VIC 3222</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Last Update: 30 July 2020</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Website navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;+          <t>li: Willaura Primary School OSHC ARARAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>li: Woodlea Early Education AINTREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Schools closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>li: The Department has been advised of the following school closures:</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Al Taqwa College, TRUGANINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>li: Bellarine Secondary Collge, DRYSDALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Belmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>li: Footscray High School, FOOTSCRAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>li: Suzanne Cory High School, WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>li: The Department has</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>li: been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State                                                                    &lt;/a&gt;@@ -1581,29 +1728,29 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A198"/>
+  <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,462 +768,462 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Cranbourne East Primary School, CRAnBOURNE</t>
+          <t>li: Christian Brothers College, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Cranbourne East Primary School, CRAnBOURNE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: MacRobertson Girl's College, MELBOURNE</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Korumburra Secondary College, KORUMBURRA</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: PCW, WINDSOR</t>
+          <t>li: MacRobertson Girl's College, MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>li: PCW, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Presentation College, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Westall Primary School, CLAYTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAshwood High School, BURWOODAuburn High School, HAWTHORN EASTCroydon Hills Primary School, CroydonGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAshwood High School, BURWOODAuburn High School, HAWTHORN EASTBillanook College, MOOROOLBARKCroydon Hills Primary School, CroydonEdinburgh College Secondary Campus, LILYDALEGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTShepparton ACE College, SHEPPARTONVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Epping Views Primary School OSHC EPPING</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Epping Views Primary School OSHC EPPING</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFindon Primary School, MILL PARKFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNorthcote High School, NORTHCOTENorthern College of the Arts and Technology, PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYTAFE</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
@@ -1237,488 +1237,509 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFindon Primary School, MILL PARKFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNorthcote High School, NORTHCOTENorthern College of the Arts and Technology, PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYWhittlesea Secondary College, WHITTLESEATAFE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Burnside Occasional Care BURNSIDE</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: Burnside Occasional Care BURNSIDE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School Outside School Hours Care Program GROVEDALE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Grovedale West Primary School Outside School Hours Care Program GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Kelly Club OSHC St Thomas Primary School DRYSDALE VIC 3222</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kelly Club OSHC St Thomas Primary School DRYSDALE VIC 3222</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Woodlea Early Education AINTREE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINA</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Bellarine Secondary Collge, DRYSDALE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Belmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINAAquinas College, RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
+          <t>li: Bellarine Secondary Collge, DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINE</t>
+          <t>Belmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Suzanne Cory High School, WERRIBEE</t>
+          <t>li: Footscray High School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Suzanne Cory High School, WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Sydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1728,29 +1749,29 @@
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
     <row r="198">
       <c r="A198" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -418,7 +418,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsSchool and early childhood service, TAFE closures and relocations for Monday 3 August 2020South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations:South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:A209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,63 +488,63 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomas Mitchell Primary School OSHC ENDEAVOUR HILLS</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
@@ -572,273 +572,273 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Cranbourne Christian Fellowship Centre Inc T/AS TurningPoint Family Church Cranbourne</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Dala Yooro BAIRNSDALE</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Dala Yooro BAIRNSDALE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Hope Frankston Heights FRANKSTON</t>
+          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: CBC, ST KILDA</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Christian Brothers College, ST KILDA</t>
+          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Cranbourne East Primary School, CRAnBOURNE</t>
+          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Christian Brothers College, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Korumburra Secondary College, KORUMBURRA</t>
+          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: MacRobertson Girl's College, MELBOURNE</t>
+          <t>li: Korumburra Secondary College, KORUMBURRA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: MacRobertson Girl's College, MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: PCW, WINDSOR</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
@@ -852,21 +852,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Thomas Mitchell Primary School, ENDEAVOUR HILLS</t>
+          <t>TAFEThe Department hasbeen advised of the following TAFE closures:</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Westall Primary School, CLAYTON SOUTH</t>
+          <t>li: TAFE Gippsland+ (Yallourn campus), YALLOURN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -901,845 +902,901 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Camp Australia - Billanook College OSHC MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Frank R Pullar Childcare Centre MOOROOPNA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: Selby Preschool SELBY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAshwood High School, BURWOODAuburn High School, HAWTHORN EASTBillanook College, MOOROOLBARKCroydon Hills Primary School, CroydonEdinburgh College Secondary Campus, LILYDALEGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTShepparton ACE College, SHEPPARTONVermont Primary School, VERMONTWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAuburn High School, HAWTHORN EASTBillanook College, MOOROOLBARKCroydon Hills Primary School, CroydonEdinburgh College Secondary Campus, LILYDALEGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTShepparton ACE College, SHEPPARTONWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Epping Views Primary School OSHC EPPING</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Cooke Court Child Care Centre RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Epping Views Primary School OSHC EPPING</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Tullamarine Early Learning Centre TULLAMARINE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFindon Primary School, MILL PARKFitzroy Primary School, FITZROYGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKGreenvalePrimary School, GREENVALELalor Secondary College, LALORMelbourne Girls College, RICHMONDNorthcote High School, NORTHCOTENorthern College of the Arts and Technology, PRESTONPascoe Vale Girls Secondary College, OAK PARKPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORPrinces Hill Secondary College, PRINCES HILLRoxburgh College, ROXBURGH PARKSacred Heart School, FITZROYThornbury High School, THORNBURYWhittlesea Secondary College, WHITTLESEATAFE</t>
+          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Northland Kinder Haven PRESTON</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTCoburg Primary School, COBURGEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFindon Primary School, MILL PARKGisborne Primary SchoolGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKHume Central Secondary College, BROADMEADOWSMelbourne Girls College, RICHMONDPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORRiddells Creek Primary School, RIDDELLS CREEKSacred Heart School, FITZROYThornbury High School, THORNBURYWhittlesea Secondary College, WHITTLESEATAFE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Burnside Occasional Care BURNSIDE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray City Primary School OSHC FOOTSCRAY</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Future Kids Child Care-West Tarneit TARNEIT</t>
+          <t>li: Burnside Occasional Care BURNSIDE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Camp Australia - Alamanda K-9 College OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School Outside School Hours Care Program GROVEDALE</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Highpoint Kinder Haven MARIBYRNONG</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Kelly Club OSHC St Thomas Primary School DRYSDALE VIC 3222</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: Grovedale West Primary School Outside School Hours Care Program GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Woodlea Early Education AINTREE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Kids World Geelong NORLANE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINAAquinas College, RINGWOOD</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Bellarine Secondary Collge, DRYSDALE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Belmont High School, BELMONTBraybrook College, BRAYBROOKBuckley Park College, ESSENDONCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College Delahey Campus, DELAHEYCopperfield College, Sydenham Campus, SYDENHAM</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Footscray High School, FOOTSCRAY</t>
+          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
+          <t>li: Sacred Heart PS TheirCare ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGLowther Hall Anglican Grammar School, ESSENDONKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONAPoint Cook Senior Secondary College, POINT COOKRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Suzanne Cory High School, WERRIBEE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITTaylors Lakes Secondary College, TAYLORS LAKESThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINAAquinas College, RINGWOODBellarine Secondary Collge, DRYSDALEBraybrook College, BRAYBROOKCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College, Sydenham Campus, SYDENHAMGeelong Baptist College, LOVELY BANKSGrovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONARosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINESuzanne Cory High School, WERRIBEESydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
+        <is>
+          <t>li: The Department has</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>li: been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1749,29 +1806,29 @@
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A209"/>
+  <dimension ref="A1:A202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,1329 +474,1280 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Buchan Early Childhood Development Centre BUCHAN</t>
+          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC  SANDRINGHAM</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Dala Yooro BAIRNSDALE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Cranbourne Christian Fellowship Centre Inc T/AS TurningPoint Family Church Cranbourne</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Dala Yooro BAIRNSDALE</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:Aspendale Primary SchoolCheltenham East Primary School, CHELTENHAMCheltenham Secondary College, CHELTENHAMChristian Brothers College, ST KILDACranbourne East Primary Schoo CRANBOURNE EASTDandenong High School, DANDENONGDandenong Valley Special Developmental School, DANDENONGGleneagles Secondary College, ENDEAVOUR HILLSHampton Park Secondary College, HAMPTON PARKHester Hornbrook Academy, MELBOURNEKorumburra Secondary College, KORUMBURRAMacRobertson Girl's College, MELBOURNEOverport Primary School, FRANKSTONPakenham Secondary College, PAKENHAMPresentation College, WINDSORSt John's Regional College, DANDENONGTAFEThe Department hasbeen advised of the following TAFE closures:</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:</t>
+          <t>li: TAFE Gippsland+ (Yallourn campus), YALLOURN</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Cheltenham East Primary School, CHELTENHAM</t>
+          <t>North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Cheltenham Secondary College, CHELTENHAM</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Christian Brothers College, ST KILDA</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Fountain Gate Secondary College, NARRE WARREN</t>
+          <t>li: Camp Australia - Billanook College OSHC MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Kingston Heath Primary School, CHELTENHAM</t>
+          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Korumburra Secondary College, KORUMBURRA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: MacRobertson Girl's College, MELBOURNE</t>
+          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Presentation College, WINDSOR</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TAFEThe Department hasbeen advised of the following TAFE closures:</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: TAFE Gippsland- (Yallourn campus), YALLOURN</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Billanook College OSHC MOOROOLBARK</t>
+          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Selby Preschool SELBY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Billanook College, MOOROOLBARKCroydon Hills Primary School, CroydonKerrimuir Primary School, BOX HILL NORTHManfield Secondary College, MANSFIELDMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTShepparton ACE College, SHEPPARTONStrathcona Baptist Girl's Grammar, CANTERBURYWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Frank R Pullar Childcare Centre MOOROOPNA</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Selby Preschool SELBY</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Aquinas College, RINGWOODAurora School, BLACKBURN SOUTHAuburn High School, HAWTHORN EASTBillanook College, MOOROOLBARKCroydon Hills Primary School, CroydonEdinburgh College Secondary Campus, LILYDALEGlen Iris Primary School, GLEN IRISKerrimuir Primary School, BOX HILL NORTHMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTShepparton ACE College, SHEPPARTONWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Epping Views Primary School OSHC EPPING</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Fitzroy PS OSHC FITZROY</t>
+          <t>li: Greenvale PS TheirCare GREENVALE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
+          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Northland Kinder Haven PRESTON</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Cooke Court Child Care Centre RICHMOND</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>Schoolsclosed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Epping Views Primary School OSHC EPPING</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTCoburg Primary School, COBURGEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFairfield Primary School, FAIRFIELDFindon Primary School, MILL PARKGisborne Primary SchoolGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKHume Central Secondary College, BROADMEADOWSMelbourne Girls College, RICHMONDPeter Lalor Secondary College, LALORRiddells Creek Primary School, RIDDELLS CREEKSacred Heart School, FITZROYThornbury High School, THORNBURYWhittlesea Secondary College, WHITTLESEATAFE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: The Department has been advised of the followi</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
+          <t>ng early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Northland Kinder Haven PRESTON</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTCoburg Primary School, COBURGEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFindon Primary School, MILL PARKGisborne Primary SchoolGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKHume Central Secondary College, BROADMEADOWSMelbourne Girls College, RICHMONDPenders Grove Primary School, THORNBURYPeter Lalor Secondary College, LALORRiddells Creek Primary School, RIDDELLS CREEKSacred Heart School, FITZROYThornbury High School, THORNBURYWhittlesea Secondary College, WHITTLESEATAFE</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Big Childcare - Wyndham Vale Primary School OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: Burnside Occasional Care BURNSIDE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: Camp Australia - Alamanda K-9 College OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Camp Australia - St Robert's Catholic Primary School OSHC NEWTOWN</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Explorers Early Learning - Williamstown WILLIAMSTOWN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Burnside Occasional Care BURNSIDE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alamanda K-9 College OSHC POINT COOK</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Happy Feet ELC MELTON WEST</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Kids on Collins MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Kids World Geelong NORLANE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Milleara Integrated Learning &amp; Development Centre for Children KEILOR EAST</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Grovedale West Primary School Outside School Hours Care Program GROVEDALE</t>
+          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Sacred Heart PS TheirCare ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Kids World Geelong NORLANE</t>
+          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Sacred Heart PS TheirCare ST ALBANS</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINAAquinas College, RINGWOODBeeac Primary School, BEEACBraybrook College, BRAYBROOKCana Catholic Primary School, HILLSIDECarranballac P-9 College, POINT COOKCaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College, Sydenham Campus, SYDENHAMGeelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMandama Primary School, GROVEDALEMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONANewcomb Secondary College, NEWCOMBENorthernBay P-12 College (Wexford Campus), CORIOParkville College, PARKVILLEPenleigh and Essendon Grammar School, ESSENDONRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGSunshine Heights Primary School, SUNSHINESuzanne Cory High School, WERRIBEESydenham Hillside Primary School, SYDENHAMTarneit P-9 College, TARNEITTarneit Senior College, TARNEITThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITVictoria University Secondary College, BRIMBANKWarracknabeal Secondary College, WARRACKNABEALWyndham Vale Primary School, WYNDHAM VALETAFE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINAAquinas College, RINGWOODBellarine Secondary Collge, DRYSDALEBraybrook College, BRAYBROOKCana Catholic Primary School, HILLSIDECaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College, Sydenham Campus, SYDENHAMGeelong Baptist College, LOVELY BANKSGrovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONARosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGStaughton College, MELTON SOUTHSunshine Heights Primary School, SUNSHINESuzanne Cory High School, WERRIBEESydenham Hillside Primary School, SYDENHAMTarneit P-12 College, TARNEITTarneit Rise Primary School, TARNEITTarneit Senior College, TARNEITThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSTAFE</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>li: been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
         <is>
           <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1806,29 +1757,29 @@
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -754,7 +754,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:Aspendale Primary SchoolCheltenham East Primary School, CHELTENHAMCheltenham Secondary College, CHELTENHAMChristian Brothers College, ST KILDACranbourne East Primary Schoo CRANBOURNE EASTDandenong High School, DANDENONGDandenong Valley Special Developmental School, DANDENONGGleneagles Secondary College, ENDEAVOUR HILLSHampton Park Secondary College, HAMPTON PARKHester Hornbrook Academy, MELBOURNEKorumburra Secondary College, KORUMBURRAMacRobertson Girl's College, MELBOURNEOverport Primary School, FRANKSTONPakenham Secondary College, PAKENHAMPresentation College, WINDSORSt John's Regional College, DANDENONGTAFEThe Department hasbeen advised of the following TAFE closures:</t>
+          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:Aspendale Primary School, ASPENDALECheltenham Secondary College, CHELTENHAMChristian Brothers College, ST KILDACranbourne East Primary SchooL, CRANBOURNE EASTDandenong High School, DANDENONGDandenong Valley Special Developmental School, DANDENONGGleneagles Secondary College, ENDEAVOUR HILLSHampton Park Secondary College, HAMPTON PARKKorumburra Secondary College, KORUMBURRALyndale Secondary College, DANDENONG NORTHMacRobertson Girls College, MELBOURNEMinaret College, SPRINGVALEOverport Primary School, FRANKSTONPakenham Secondary College, PAKENHAMPresentation College, WINDSORSt John's Regional College, DANDENONGTAFEThe Department hasbeen advised of the following TAFE closures:</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Billanook College, MOOROOLBARKCroydon Hills Primary School, CroydonKerrimuir Primary School, BOX HILL NORTHManfield Secondary College, MANSFIELDMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYOur Lady Of the Way, WALLAN EASTShepparton ACE College, SHEPPARTONStrathcona Baptist Girl's Grammar, CANTERBURYWattle Park Primary School, BURWOODTAFE</t>
+          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Balwyn North Primary School, BALWYN NORTHBillanook College, MOOROOLBARKBoronia West Primary School, BORONIAMansfield Secondary College, MANSFIELDMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYStrathcona Baptist Girls Grammar, CANTERBURYWattle Park Primary School, BURWOODTAFE</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Al Siraat College, EPPINGCharles La Trobe, MACLEOD WESTCoburg Primary School, COBURGEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFairfield Primary School, FAIRFIELDFindon Primary School, MILL PARKGisborne Primary SchoolGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKHume Central Secondary College, BROADMEADOWSMelbourne Girls College, RICHMONDPeter Lalor Secondary College, LALORRiddells Creek Primary School, RIDDELLS CREEKSacred Heart School, FITZROYThornbury High School, THORNBURYWhittlesea Secondary College, WHITTLESEATAFE</t>
+          <t>Charles La Trobe, MACLEOD WESTCoburg Primary School, COBURGCraigieburn South Primary School, CRAIGIEBURNCraigieburn Secondary College, CRAIGIEBURNEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFairfield Primary School, FAIRFIELDGisborne Primary SchoolGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKHume Central Secondary College, BROADMEADOWSKyneton High School, KYNETONMelbourne Girls College, RICHMONDOur Lady Of The Way, KINGSBURYRiddells Creek Primary School, RIDDELLS CREEKSacred Heart College, KYNETONSacred Heart School, FITZROYSt Gabriel's Primary School, RESERVOIRThornbury High School, THORNBURYViewbank Primary School, VIEWBANKTAFE</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINAAquinas College, RINGWOODBeeac Primary School, BEEACBraybrook College, BRAYBROOKCana Catholic Primary School, HILLSIDECarranballac P-9 College, POINT COOKCaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTColac Secondary College, COLACCopperfield College, Sydenham Campus, SYDENHAMGeelong Baptist College, LOVELY BANKS</t>
+          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINABeeac Primary School, BEEACBraybrook College, BRAYBROOKCarranballac P-9 College, POINT COOKCaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCoburn Primary School, MELTON SOUTHColac Secondary College, COLACCopperfield College, Sydenham Campus, SYDENHAMGeelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMandama Primary School, GROVEDALEMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONANewcomb Secondary College, NEWCOMBENorthernBay P-12 College (Wexford Campus), CORIOParkville College, PARKVILLEPenleigh and Essendon Grammar School, ESSENDONRosamond Specialist School, BRAYBROOKSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGSunshine Heights Primary School, SUNSHINESuzanne Cory High School, WERRIBEESydenham Hillside Primary School, SYDENHAMTarneit P-9 College, TARNEITTarneit Senior College, TARNEITThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITVictoria University Secondary College, BRIMBANKWarracknabeal Secondary College, WARRACKNABEALWyndham Vale Primary School, WYNDHAM VALETAFE</t>
+          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMandama Primary School, GROVEDALEMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONANewcomb Secondary College, NEWCOMBENorthernBay P-12 College (Wexford Campus), CORIOParkville College, PARKVILLEPenleigh and Essendon Grammar School, ESSENDONSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGSydenham Hillside Primary School, SYDENHAMTarneit P-9 College, TARNEITTarneit Senior College, TARNEITThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITVictoria University Secondary College, BRIMBANKWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSWyndham Vale Primary School, WYNDHAM VALETAFE</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A202"/>
+  <dimension ref="A1:A311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Closures, remote learning and relocationsGoogle Tag Manager (noscript)End Google Tag Manager (noscript)You may be trying to access this site from a secured browser on the server. Please enable scripts and reload this page.Start of Site headerSkip to contentSearchSearchEnd of Site headerHome&gt;The Department&gt;Program directory&gt;Emergencies and Natural Disasters&gt;Closures, remote learning and relocationsClosures, remote learning and relocations</t>
+          <t>Closures, remote learning and relocationsGoogle Tag Manager (noscript)End Google Tag Manager (noscript)You may be trying to access this site from a secured browser on the server. Please enable scripts and reload this page.Start of Site headerSkip to contentSearchSearchEnd of Site headerHome&gt;The Department&gt;Program directory&gt;Emergencies and Natural Disasters&gt;Closures, remote learning and relocationsClosures, remote learning and relocations- Example page content area using current sharepoint wrapperPage Content</t>
         </is>
       </c>
     </row>
@@ -383,1373 +383,2135 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rollup Image</t>
+          <t>li: Closures may be the result of a number of factors including: the Covid-19 pandemic, bushfire preparedness, construction or other factors. More information is available from your local service, school or TAFE.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>li: Closures may be the result of a number of factors including: the Covid-19 pandemic, bushfire preparedness, construction or other factors. More information is available from your local service, school or TAFE.</t>
+          <t>li: See</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>li: See</t>
+          <t>Coronavirus advice</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coronavirus advice</t>
+          <t>li: for the latest advice on the outbreak of COVID-19 (coronavirus).</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>li: for the latest advice on the outbreak of COVID-19 (coronavirus).</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations:South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>On this pageSchool and early childhood service, TAFE closures and relocationsBus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations:South-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following</t>
+          <t>li: Aqua Energy Creche SALE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>early childhood service</t>
+          <t>li: Barring Djinang Kindergarten SOUTHBANK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>li: closures:</t>
+          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>li: Aqua Energy Creche SALE</t>
+          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
+          <t>li: Botany Park Preschool CARRUM DOWNS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Brighton Playroom Association BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
+          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kingston Heath Primary School OSHC CHELTENHAM</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Dala Yooro BAIRNSDALE</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Officer Child Care Centre OFFICER</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SchoolsclosedTheDepartment hasbeen advised of the followingschool closures:Aspendale Primary School, ASPENDALECheltenham Secondary College, CHELTENHAMChristian Brothers College, ST KILDACranbourne East Primary SchooL, CRANBOURNE EASTDandenong High School, DANDENONGDandenong Valley Special Developmental School, DANDENONGGleneagles Secondary College, ENDEAVOUR HILLSHampton Park Secondary College, HAMPTON PARKKorumburra Secondary College, KORUMBURRALyndale Secondary College, DANDENONG NORTHMacRobertson Girls College, MELBOURNEMinaret College, SPRINGVALEOverport Primary School, FRANKSTONPakenham Secondary College, PAKENHAMPresentation College, WINDSORSt John's Regional College, DANDENONGTAFEThe Department hasbeen advised of the following TAFE closures:</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: TAFE Gippsland- (Yallourn campus), YALLOURN</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Billanook College OSHC MOOROOLBARK</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kerrimuir Primary School OSHC BOX HILL NORTH</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mount Waverley Primary School OSHC MOUNT WAVERLEY</t>
+          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clement of Rome School OSHC BULLEEN</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Christian Brothers College, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Cranbourne East Primary SchooL, CRANBOURNE EAST</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Hampton Park Secondary College, HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Katandra School Special School, ORMOND</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Chadstone HUGHESDALE</t>
+          <t>li: Keysborough Secondary College (Acacia Campus), KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Selby Preschool SELBY</t>
+          <t>li: Keysborough Secondary College (Banksia Campus), KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Korumburra Secondary College, KORUMBURRA</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Lyndale Secondary College, DANDENONG NORTH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Outside School Hours Child Care Service VERMONT</t>
+          <t>li: MacRobertson Girls College, MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advisedof the followingschool closures:Balwyn North Primary School, BALWYN NORTHBillanook College, MOOROOLBARKBoronia West Primary School, BORONIAMansfield Secondary College, MANSFIELDMooroolbark College, MOOROOLBARKMount Waverley Primary School, MOUNT WAVERLEYStrathcona Baptist Girls Grammar, CANTERBURYWattle Park Primary School, BURWOODTAFE</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Pakenham Primary School, PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Pakenham Secondary College, PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Presentation College, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: St John's Regional College, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: The Department has been advised of the following TAFE closures:</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: TAFE Gippsland (Yallourn campus), YALLOURN</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Findon Primary School OSHC MILL PARK</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: All Saints Preschool Yarra Junction Inc YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: Aurora School Community Kindergarten BLACKBURN SOUTH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Belford Oaks Community Children's Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Camp Australia - Billanook College OSHC MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Epping Views Primary School OSHC EPPING</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Greenvale PS TheirCare GREENVALE</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Northland Kinder Haven PRESTON</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Pender's Grove Primary School Combined OSHC THORNBURY</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Doncaster Early Learning Child Care DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Schoolsclosed</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Genazzano FCJ College KEW</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Charles La Trobe, MACLEOD WESTCoburg Primary School, COBURGCraigieburn South Primary School, CRAIGIEBURNCraigieburn Secondary College, CRAIGIEBURNEpping Secondary College, EPPINGEpping Views Primary School, EPPINGFairfield Primary School, FAIRFIELDGisborne Primary SchoolGisborne Secondary College, GISBORNEGladstone Park Secondary College, GLADSTONE PARKHume Central Secondary College, BROADMEADOWSKyneton High School, KYNETONMelbourne Girls College, RICHMONDOur Lady Of The Way, KINGSBURYRiddells Creek Primary School, RIDDELLS CREEKSacred Heart College, KYNETONSacred Heart School, FITZROYSt Gabriel's Primary School, RESERVOIRThornbury High School, THORNBURYViewbank Primary School, VIEWBANKTAFE</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionThe Department has not been advised of any school, early childhood service or TAFE closures, or buscancellations.Early childhood services</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the followi</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ng early childhood service closures:</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Selby Community House SELBY</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Vista Valley Kindergarten BULLEEN</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Sunshine Heights PS OSHC SUNSHINE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Big Childcare – Sydenham/Hillside Sydenham Campus SYDENHAM</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
+          <t>li: Billanook College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: Boronia West Primary School, BORONIA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Wyndham Vale Primary School OSHC WYNDHAM VALE</t>
+          <t>li: Box Hill Senior Secondary School, BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Glen Waverley Secondary College, GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Mater Christi College, BELGRAVE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Burnside Occasional Care BURNSIDE</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alamanda K-9 College OSHC POINT COOK</t>
+          <t>li: Strathcona Baptist Girls Grammar, CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Kardinia International College OSHC BELL POST HILL</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Robert's Catholic Primary School OSHC NEWTOWN</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Brunswick Kindergarten BRUNSWICK</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Early Learning Centre Rose Grange TARNEIT</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Explorers Early Learning - Williamstown WILLIAMSTOWN</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Kardinia International College Kindergarten BELL POST HILL</t>
+          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Fairfield Primary School OSHClub FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Kids on Collins MELBOURNE</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Kids World Geelong NORLANE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Milleara Integrated Learning &amp; Development Centre for Children KEILOR EAST</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Northland Kinder Haven PRESTON</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Norfolk Street Child Care Centre YARRAVILLE</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Sacred Heart PS TheirCare ST ALBANS</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Story House Early Learning Keilor Downs KEILOR DOWNS</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: Viewbank OSHClub VIEWBANK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Catherine McAuley College (St Mary's Campus), BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Alamanda K-9 College, POINT COOKAl Taqwa College, TRUGANINABeeac Primary School, BEEACBraybrook College, BRAYBROOKCarranballac P-9 College, POINT COOKCaroline Chilsholm Catholic College, BRAYBROOKCatholic Regional College, SYDENHAMClonard Secondary College, GEELONG WESTCoburn Primary School, MELTON SOUTHColac Secondary College, COLACCopperfield College, Sydenham Campus, SYDENHAMGeelong Baptist College, LOVELY BANKS</t>
+          <t>li: Catherine McAuley College, (Coolock Campus), BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
+          <t>li: Charles La Trobe, MACLEOD WEST</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Grovedale West Primary School, GROVEDALEHoppers Crossing Secondary College, HOPPERS CROSSINGKeilor Downs Secondary College, KEILOR DOWNSKeilor Primary School, KEILORMandama Primary School, GROVEDALEMarian College, SUNSHINE WESTManor Lakes P-12 College, WYNDHAM VALEMacKillop College, WERRIBEEMelton Secondary College, MELTONMount St Joseph's Girls' College, ALTONANewcomb Secondary College, NEWCOMBENorthernBay P-12 College (Wexford Campus), CORIOParkville College, PARKVILLEPenleigh and Essendon Grammar School, ESSENDONSt Alban's Secondary College, ST ALBANSSt Joseph's Flexible Learning Centre Geelong Campus, GEELONGSydenham Hillside Primary School, SYDENHAMTarneit P-9 College, TARNEITTarneit Senior College, TARNEITThe Grange P-12, HOPPERS CROSSINGThomas Carr College, TARNEITVictoria University Secondary College, BRIMBANKWarracknabeal Secondary College, WARRACKNABEALWestern Heights Secondary College, HAMLYN HEIGHTSWyndham Vale Primary School, WYNDHAM VALETAFE</t>
+          <t>li: Coburg Primary School, COBURG</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Epping Secondary College, EPPING</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Fairfield Primary School, FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>li: Gisborne Primary School, GISBORNE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>The Department hasnotbeen advised of any school, early childhood service or TAFE closures, or buscancellations.Bus service cancellations or alterations</t>
+          <t>li: Gisborne Secondary College, GISBORNE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Gladstone Park Secondary College, GLADSTONE PARK</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Harvest Home Primary School, EPPING</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: Hume Central Secondary College, BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Kyneton High School, KYNETON</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;+          <t>li: Marymede Catholic College, SOUTH MORANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>li: Melbourne Girls College, RICHMOND</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>li: Our Lady Of The Way, KINGSBURY</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>li: Sacred Heart College, KYNETON</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>li: Sacred Heart School, FITZROY</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>li: St Gabriel's Primary School, RESERVOIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>li: Thornbury High School, THORNBURY</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>li: Viewbank Primary School, VIEWBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>TAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>South-Western Victoria Region</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>li: The Department has not been advised of any school, early childhood service or TAFE closures, or bus cancellations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Early childhood services</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>li: Big Childcare - Wyndham Vale Primary School OSHC WYNDHAM VALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>li: Burnside Occasional Care BURNSIDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>li: Camp Australia - Alamanda K-9 College OSHC POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>li: Dartmoor Children's Centre DARTMOOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>li: Eagle Stadium WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>li: Goodlife Geelong BELMONT</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>li: Goodlife Point Cook POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>li: Happy Feet ELC MELTON WEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>li: Kids World Child Care Centre WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>li: Kids World Geelong NORLANE</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>li: Melton World of Learning MELTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>li: Milleara Integrated Learning &amp; Development Centre for Children KEILOR EAST</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>li: Papilio Early Learning Essendon ESSENDON</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>li: Sacred Heart PS TheirCare ST ALBANS</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>li: Strathmore PS TheirCare STRATHMORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Schools closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>li: The Department has been advised of the following school closures:</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>li: Al Taqwa College, TRUGANINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>li: Beeac Primary School, BEEAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>li: Braybrook College, BRAYBROOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>li: Carranballac P-9 College, POINT COOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>li: Caroline Chilsholm Catholic College, BRAYBROOK</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>li: Catholic Regional College, SYDENHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>li: Coburn Primary School, MELTON SOUTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>li: Copperfield College, Sydenham Campus, SYDENHAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>li: Grovedale West Primary School, GROVEDALE</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>li: Hoppers Crossing Secondary College, HOPPERS CROSSING</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>li: Keilor Primary School, KEILOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>li: MacKellar Primary School, DELAHEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>li: MacKillop College, WERRIBEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>li: Melton Secondary College, MELTON</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>li: Northern Bay P-12 College (Wexford Campus), CORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>li: Parkville College, PARKVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>li: Sacred Heart College, NEWTOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>li: St Alban's Secondary College, ST ALBANS</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>li: St Robert's School, NEWTOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>li: Strathmore Primary School, STRATHMORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>li: Strathmore Secondary College, STRATHMORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>li: Tarneit Senior College, TARNEIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>li: The Grange P-12, HOPPERS CROSSING</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>li: Victoria University Secondary College, BRIMBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>li: Warracknabeal Secondary College, WARRACKNABEAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>li: Western Heights Secondary College, HAMLYN HEIGHTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>li: Last Update: 07 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State                                                                    &lt;/a&gt;@@ -1757,29 +2519,29 @@
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="308">
+      <c r="A308" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="309">
+      <c r="A309" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="310">
+      <c r="A310" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="311">
+      <c r="A311" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A311"/>
+  <dimension ref="A1:A282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,581 +432,581 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>li: Barring Djinang Kindergarten SOUTHBANK</t>
+          <t>li: Bairnsdale Aquatic &amp; Recreation Centre BAIRNSDALE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
+          <t>li: Barring Djinang Kindergarten SOUTHBANK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
+          <t>li: Berwick Neighbourhood Centre BERWICK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>li: Botany Park Preschool CARRUM DOWNS</t>
+          <t>li: Berwick Neighbourhood Centre - Marriott Waters LYNDHURST</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Berwick Neighbourhood Centre (Timbarra Playroom) BERWICK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Brighton Playroom Association BRIGHTON</t>
+          <t>li: Botany Park Preschool CARRUM DOWNS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
+          <t>li: Brighton Playroom Association BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
+          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
+          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Officer Child Care Centre OFFICER</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Officer Child Care Centre OFFICER</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Christian Brothers College, ST KILDA</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Cranbourne East Primary SchooL, CRANBOURNE EAST</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Christian Brothers College, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Hampton Park Secondary College, HAMPTON PARK</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Katandra School Special School, ORMOND</t>
+          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Keysborough Secondary College (Acacia Campus), KEYSBOROUGH</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Keysborough Secondary College (Banksia Campus), KEYSBOROUGH</t>
+          <t>li: Hampton Park Secondary College, HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Korumburra Secondary College, KORUMBURRA</t>
+          <t>li: Katandra School Special School, ORMOND</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Lyndale Secondary College, DANDENONG NORTH</t>
+          <t>li: Keysborough Secondary College (Acacia Campus), KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: MacRobertson Girls College, MELBOURNE</t>
+          <t>li: Keysborough Secondary College (Banksia Campus), KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Lyndale Secondary College, DANDENONG NORTH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Pakenham Primary School, PAKENHAM</t>
+          <t>li: Overport Primary School, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Pakenham Secondary College, PAKENHAM</t>
+          <t>li: Pakenham Primary School, PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Presentation College, WINDSOR</t>
+          <t>li: Pakenham Secondary College, PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: St John's Regional College, DANDENONG</t>
+          <t>li: Presentation College, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: St John's Regional College, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following TAFE closures:</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: TAFE Gippsland (Yallourn campus), YALLOURN</t>
+          <t>li: The Department has been advised of the following TAFE closures:</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: TAFE Gippsland (Yallourn campus), YALLOURN</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: All Saints Preschool Yarra Junction Inc YARRA JUNCTION</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
@@ -1034,28 +1034,28 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Aurora School Community Kindergarten BLACKBURN SOUTH</t>
+          <t>li: Belford Oaks Community Children's Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Belford Oaks Community Children's Centre KEW</t>
+          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
         </is>
       </c>
     </row>
@@ -1069,462 +1069,462 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Billanook College OSHC MOOROOLBARK</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Doncaster Early Learning Child Care DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Doncaster Early Learning Child Care DONCASTER</t>
+          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Genazzano FCJ College KEW</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Genazzano FCJ College KEW</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Selby Community House SELBY</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Selby Community House SELBY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Vista Valley Kindergarten BULLEEN</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Billanook College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Boronia West Primary School, BORONIA</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Billanook College, MOOROOLBARK</t>
+          <t>li: Box Hill Senior Secondary School, BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Boronia West Primary School, BORONIA</t>
+          <t>li: Glen Waverley Secondary College, GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Box Hill Senior Secondary School, BOX HILL</t>
+          <t>li: Mater Christi College, BELGRAVE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Glen Waverley Secondary College, GLEN WAVERLEY</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Mater Christi College, BELGRAVE</t>
+          <t>li: Strathcona Baptist Girls Grammar, CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Strathcona Baptist Girls Grammar, CANTERBURY</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Brunswick Kindergarten BRUNSWICK</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Brunswick Kindergarten BRUNSWICK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Fairfield Primary School OSHClub FAIRFIELD</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
@@ -1538,978 +1538,775 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Northland Kinder Haven PRESTON</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Viewbank OSHClub VIEWBANK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Viewbank OSHClub VIEWBANK</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Catherine McAuley College (St Mary's Campus), BENDIGO</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Catherine McAuley College, (Coolock Campus), BENDIGO</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Charles La Trobe, MACLEOD WEST</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Coburg Primary School, COBURG</t>
+          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCatherine McAuley College, (Coolock Campus), BENDIGOCoburg Primary School, COBURGEpping Secondary College, EPPINGGisborne Primary School, GISBORNEHume Central Secondary College, BROADMEADOWSHume Valley School, BROADMEADOWSKyneton High School, KYNETONMarymede Catholic College, SOUTH MORANGOur Lady Of The Way, KINGSBURYSacred Heart College, KYNETONSacred Heart School, FITZROYSt Gabriel's Primary School, RESERVOIRViewbank College, VIEWBANKTAFE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Epping Secondary College, EPPING</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Fairfield Primary School, FAIRFIELD</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Gisborne Primary School, GISBORNE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Gisborne Secondary College, GISBORNE</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Gladstone Park Secondary College, GLADSTONE PARK</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Harvest Home Primary School, EPPING</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Hume Central Secondary College, BROADMEADOWS</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Kyneton High School, KYNETON</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Marymede Catholic College, SOUTH MORANG</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Melbourne Girls College, RICHMOND</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Our Lady Of The Way, KINGSBURY</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Sacred Heart College, KYNETON</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Sacred Heart School, FITZROY</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: St Gabriel's Primary School, RESERVOIR</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Thornbury High School, THORNBURY</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Viewbank Primary School, VIEWBANK</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>South-Western Victoria Region</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any school, early childhood service or TAFE closures, or bus cancellations.</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Early childhood services</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Dartmoor Children's Centre DARTMOOR</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Wyndham Vale Primary School OSHC WYNDHAM VALE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Burnside Occasional Care BURNSIDE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alamanda K-9 College OSHC POINT COOK</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Kids World Child Care Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Dartmoor Children's Centre DARTMOOR</t>
+          <t>li: Papilio Early Learning Essendon ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Strathmore PS TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>li: Happy Feet ELC MELTON WEST</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>li: Kids World Child Care Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>li: Kids World Geelong NORLANE</t>
+          <t>li: Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Beeac Primary School, BEEAC</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Braybrook College, BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Carranballac P-9 College, POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+          <t>li: Caroline Chilsholm Catholic College, BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Catholic Regional College, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>li: Melton World of Learning MELTON</t>
+          <t>li: Copperfield College, Sydenham Campus, SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>li: Milleara Integrated Learning &amp; Development Centre for Children KEILOR EAST</t>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: MacKillop College, WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>li: Papilio Early Learning Essendon ESSENDON</t>
+          <t>li: Northern Bay P-12 College (Wexford Campus), CORIO</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>li: Sacred Heart PS TheirCare ST ALBANS</t>
+          <t>li: Parkville College, PARKVILLE</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Sacred Heart College, NEWTOWN</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: St Alban's Secondary College, ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: St Robert's School, NEWTOWN</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>li: Strathmore Primary School, STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>li: Strathmore PS TheirCare STRATHMORE</t>
+          <t>li: Strathmore Secondary College, STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Tarneit Senior College, TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: The Grange P-12, HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Victorian College of the Arts, SOUTHBANK</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Wallington Primary School, WALLINGTON</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Western Heights Secondary College, HAMLYN HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>li: Beeac Primary School, BEEAC</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>li: Braybrook College, BRAYBROOK</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>li: Carranballac P-9 College, POINT COOK</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>li: Caroline Chilsholm Catholic College, BRAYBROOK</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>li: Catholic Regional College, SYDENHAM</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School, MELTON SOUTH</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>li: Copperfield College, Sydenham Campus, SYDENHAM</t>
+          <t>li: Last Update: 10 August 2020</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
-        <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>li: Grovedale West Primary School, GROVEDALE</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>li: Hoppers Crossing Secondary College, HOPPERS CROSSING</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>li: Keilor Primary School, KEILOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>li: MacKellar Primary School, DELAHEY</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>li: MacKillop College, WERRIBEE</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>li: Melton Secondary College, MELTON</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>li: Northern Bay P-12 College (Wexford Campus), CORIO</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>li: Parkville College, PARKVILLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>li: Sacred Heart College, NEWTOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>li: St Alban's Secondary College, ST ALBANS</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>li: St Robert's School, NEWTOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>li: Strathmore Primary School, STRATHMORE</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>li: Strathmore Secondary College, STRATHMORE</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>li: The Grange P-12, HOPPERS CROSSING</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>li: Victoria University Secondary College, BRIMBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>li: Warracknabeal Secondary College, WARRACKNABEAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>li: Western Heights Secondary College, HAMLYN HEIGHTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>TAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>li: For Term 2 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>School bus services in Term 2 (for schools)School bus services in Term 2 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>li: Last Update: 07 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2519,29 +2316,29 @@
         </is>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
+    <row r="280">
+      <c r="A280" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
+    <row r="281">
+      <c r="A281" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
+    <row r="282">
+      <c r="A282" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A282"/>
+  <dimension ref="A1:A291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations:South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 11 August:South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -880,56 +880,56 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Christian Brothers College, ST KILDA</t>
+          <t>li: Beaconhills College, PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>li: Carwatha College P-12, NOBLE PARK</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Dandenong Valley Special Developmental School, DANDENONG</t>
+          <t>li: Christian Brothers College, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: Dandenong High School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Hampton Park Secondary College, HAMPTON PARK</t>
+          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Katandra School Special School, ORMOND</t>
+          <t>li: Hampton Park Secondary College, HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Keysborough Secondary College (Acacia Campus), KEYSBOROUGH</t>
+          <t>li: Katandra School Special School, ORMOND</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Keysborough Secondary College (Banksia Campus), KEYSBOROUGH</t>
+          <t>li: Lighthouse Chrstian College Cranbourne, CRANBOURNE</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Overport Primary School, FRANKSTON</t>
+          <t>li: Mt Hira College, KEYSBOROUGH</t>
         </is>
       </c>
     </row>
@@ -957,1148 +957,1148 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Pakenham Secondary College, PAKENHAM</t>
+          <t>li: Presentation College, WINDSOR</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Presentation College, WINDSOR</t>
+          <t>li: St John's Regional College, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: St John's Regional College, DANDENONG</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has been advised of the following TAFE closures:</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following TAFE closures:</t>
+          <t>li: TAFE Gippsland (Yallourn campus), YALLOURN</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: TAFE Gippsland (Yallourn campus), YALLOURN</t>
+          <t>North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Belford Oaks Community Children's Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Belford Oaks Community Children's Centre KEW</t>
+          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Doncaster Early Learning Child Care DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Doncaster Early Learning Child Care DONCASTER</t>
+          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Genazzano FCJ College KEW</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Genazzano FCJ College KEW</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Selby Community House SELBY</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Selby Community House SELBY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Billanook College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Billanook College, MOOROOLBARK</t>
+          <t>li: Boronia West Primary School, BORONIA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Boronia West Primary School, BORONIA</t>
+          <t>li: Glen Waverley Secondary College, GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Box Hill Senior Secondary School, BOX HILL</t>
+          <t>li: Greater Shepparton Secondary College, SHEPPARTON</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Glen Waverley Secondary College, GLEN WAVERLEY</t>
+          <t>li: Mater Christi College, BELGRAVE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Mater Christi College, BELGRAVE</t>
+          <t>li: Mooroolbark College, MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>li: Strathcona Baptist Girls Grammar, CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Strathcona Baptist Girls Grammar, CANTERBURY</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Brunswick Kindergarten BRUNSWICK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Brunswick Kindergarten BRUNSWICK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
+          <t>li: Only About Children Northcote NORTHCOTE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: Viewbank OSHClub VIEWBANK</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Viewbank OSHClub VIEWBANK</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCatherine McAuley College, (Coolock Campus), BENDIGOCoburg Primary School, COBURGCoburg North Primary School, COBURGCoburg West Primary School, COBURGEpping Secondary College, EPPINGGisborne Primary School, GISBORNEHume Central Secondary College, BROADMEADOWSHume Valley School, BROADMEADOWSKyneton High School, KYNETONMarymede Catholic College, SOUTH MORANGMorang South Primary School, SOUTH MORANGOur Lady Of The Way, KINGSBURYSacred Heart College, KYNETONSt Gabriel's Primary School, RESERVOIRSunbury Downs Secondary College, SUNBURYThornbury Primary School, THORNBURYViewbank College, VIEWBANKWilliam Ruthven Secondary College, RESERVIORTAFE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCatherine McAuley College, (Coolock Campus), BENDIGOCoburg Primary School, COBURGEpping Secondary College, EPPINGGisborne Primary School, GISBORNEHume Central Secondary College, BROADMEADOWSHume Valley School, BROADMEADOWSKyneton High School, KYNETONMarymede Catholic College, SOUTH MORANGOur Lady Of The Way, KINGSBURYSacred Heart College, KYNETONSacred Heart School, FITZROYSt Gabriel's Primary School, RESERVOIRViewbank College, VIEWBANKTAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+          <t>li: Dartmoor Children's Centre DARTMOOR</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Dartmoor Children's Centre DARTMOOR</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Kids World Child Care Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Kids World Child Care Centre WERRIBEE</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Papilio Early Learning Essendon ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Papilio Early Learning Essendon ESSENDON</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: Strathmore PS TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: Strathmore PS TheirCare STRATHMORE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
+          <t>li: Beeac Primary School, BEEAC</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>li: Beeac Primary School, BEEAC</t>
+          <t>li: Belmont High School, BELMONT</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>li: Catholic Regional College, SYDENHAM</t>
+          <t>li: Catholic Regional College Insitute of Training, SYDENHAM</t>
         </is>
       </c>
     </row>
@@ -2140,173 +2140,236 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
+          <t>li: Emmanuel College, ALTONA NORTH</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
+          <t>li: Footscray North Primary School, FOOTSCRAY</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>li: MacKillop College, WERRIBEE</t>
+          <t>li: Furlong Park School for Deaf Children, SUNSHINE NORTH</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>li: Northern Bay P-12 College (Wexford Campus), CORIO</t>
+          <t>li: Geelong Baptist College, LOVELY BANKS</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>li: Parkville College, PARKVILLE</t>
+          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>li: Sacred Heart College, NEWTOWN</t>
+          <t>li: Lakeview Secondary College, CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>li: St Alban's Secondary College, ST ALBANS</t>
+          <t>li: MacKillop Catholic Regional College, WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>li: St Robert's School, NEWTOWN</t>
+          <t>li: Newcomb Secondary College, NEWCOMB</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>li: Strathmore Primary School, STRATHMORE</t>
+          <t>li: Northern Bay P-12 College (Wexford Campus), CORIO</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>li: Strathmore Secondary College, STRATHMORE</t>
+          <t>li: Parkville College, PARKVILLE</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>li: Tarneit Senior College, TARNEIT</t>
+          <t>li: Sacred Heart College, NEWTOWN</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>li: The Grange P-12, HOPPERS CROSSING</t>
+          <t>li: St Alban's Secondary College, ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>li: Victorian College of the Arts, SOUTHBANK</t>
+          <t>li: St Clare's Catholic Primary School, TRUGANINA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>li: Wallington Primary School, WALLINGTON</t>
+          <t>li: St Robert's School, NEWTOWN</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>li: Western Heights Secondary College, HAMLYN HEIGHTS</t>
+          <t>li: Stella Maris Catholic Primary School, POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Springside West Secondary College, FRASER RISE</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Stevensville Primary School, ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: Strathmore Secondary College, STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Sunshine College, SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Tarneit Rise Primary School, TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: The Grange P-12, HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Victorian College of the Arts, SOUTHBANK</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Wallington Primary School, WALLINGTON</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>li: Last Update: 10 August 2020</t>
+          <t>li: Western Heights Secondary College, HAMLYN HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
+        <is>
+          <t>TAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>li: Last Update: 11 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2316,29 +2379,29 @@
         </is>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
+    <row r="288">
+      <c r="A288" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+    <row r="289">
+      <c r="A289" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
+    <row r="290">
+      <c r="A290" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A291"/>
+  <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 11 August:South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 12 August:South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -467,1909 +467,1608 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Botany Park Preschool CARRUM DOWNS</t>
+          <t>li: Big Childcare - Pakenham PS OSHC PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Bluebird Early Education Casey Fields CRANBOURNE EAST</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Brighton Playroom Association BRIGHTON</t>
+          <t>li: Botany Park Preschool CARRUM DOWNS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cheltenham East Primary School OSHC CHELTENHAM</t>
+          <t>li: Brighton Playroom Association BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Cranbourne East Primary School OSHC CRANBOURNE</t>
+          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - East Bentleigh Primary School OSHC BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Malvern East MALVERN EAST</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Officer Child Care Centre OFFICER</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Overport Primary School OSHC - Extend FRANKSTON</t>
+          <t>li: Mentone Grammar School MENTONE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Officer Child Care Centre OFFICER</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Beaconhills College, PAKENHAM</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Carwatha College P-12, NOBLE PARK</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Christian Brothers College, ST KILDA</t>
+          <t>li: Windermere Early Learning Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Dandenong High School, DANDENONG</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Gleneagles Secondary College, ENDEAVOUR HILLS</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Hampton Park Secondary College, HAMPTON PARK</t>
+          <t>Beaconhills Christian College Berwick Campus, BERWICKCarwatha College P-12, NOBLE PARKDandenong High School, DANDENONGGleneagles Secondary College, ENDEAVOUR HILLSHampton Park Secondary College, HAMPTON PARKKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHPakenham Primary School, PAKENHAMTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Katandra School Special School, ORMOND</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Lighthouse Chrstian College Cranbourne, CRANBOURNE</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Lyndale Secondary College, DANDENONG NORTH</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Mt Hira College, KEYSBOROUGH</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Pakenham Primary School, PAKENHAM</t>
+          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Presentation College, WINDSOR</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: St John's Regional College, DANDENONG</t>
+          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following TAFE closures:</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: TAFE Gippsland (Yallourn campus), YALLOURN</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Belford Oaks Community Children's Centre KEW</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Genazzano FCJ College KEW</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Doncaster Early Learning Child Care DONCASTER</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Genazzano FCJ College KEW</t>
+          <t>li: Selby Community House SELBY</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>Glen Waverley Secondary College, GLEN WAVERLEYMater Christi College, BELGRAVEMooroolbark College, MOOROOLBARKTAFE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Selby Community House SELBY</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Brunswick Kindergarten BRUNSWICK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Billanook College, MOOROOLBARK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Boronia West Primary School, BORONIA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Glen Waverley Secondary College, GLEN WAVERLEY</t>
+          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Greater Shepparton Secondary College, SHEPPARTON</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Mater Christi College, BELGRAVE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Mooroolbark College, MOOROOLBARK</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Strathcona Baptist Girls Grammar, CANTERBURY</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Brunswick Kindergarten BRUNSWICK</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Harbard Street Kindergarten THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Preston West PRESTON</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: St Kilian's Primary YMCA Outside School Hours Care BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: St. Francis of the Fields Primary YMCA Outside School Hours Care STRATHFIELDSAYE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Only About Children Northcote NORTHCOTE</t>
+          <t>li: Viewbank OSHClub VIEWBANK</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
+          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCoburg Primary School, COBURGCoburg North Primary School, COBURGCoburg West Primary School, COBURGEpping Secondary College, EPPINGHume Valley School, BROADMEADOWSKyneton High School, KYNETONLalor North Secondary College, EPPINGLalor Secondary College, LALORMeadowglen Primary School, EPPINGMorang South Primary School, SOUTH MORANGSacred Heart College, KYNETONSt Gabriel's Primary School, RESERVOIRSunbury Downs Secondary College, SUNBURYThornbury Primary School, THORNBURYViewbank College, VIEWBANKWilliam Ruthven Secondary College, RESERVIORTAFE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Viewbank OSHClub VIEWBANK</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCatherine McAuley College, (Coolock Campus), BENDIGOCoburg Primary School, COBURGCoburg North Primary School, COBURGCoburg West Primary School, COBURGEpping Secondary College, EPPINGGisborne Primary School, GISBORNEHume Central Secondary College, BROADMEADOWSHume Valley School, BROADMEADOWSKyneton High School, KYNETONMarymede Catholic College, SOUTH MORANGMorang South Primary School, SOUTH MORANGOur Lady Of The Way, KINGSBURYSacred Heart College, KYNETONSt Gabriel's Primary School, RESERVOIRSunbury Downs Secondary College, SUNBURYThornbury Primary School, THORNBURYViewbank College, VIEWBANKWilliam Ruthven Secondary College, RESERVIORTAFE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Keilor PS OSHC KEILOR</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Manor Lakes P-12 College OSHC WYNDHAM VALE</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Dartmoor Children's Centre DARTMOOR</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Kids World Child Care Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Kids World Child Care Centre WERRIBEE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: St Monica's OSHClub MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Strathmore PS TheirCare STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Papilio Early Learning Essendon ESSENDON</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYFurlong Park School for Deaf Children, SUNSHINE NORTHGeelong Grammar School (Toorak campus), TOORAKLakeview Secondary College, CAROLINE SPRINGSMacKillop Catholic Regional College, WERRIBEEParkville College, PARKVILLESpringside West Secondary College, FRASER RISEStevensville Primary School, ST ALBANSTarneit Rise Primary School, TARNEITVictorian College of the Arts, SOUTHBANKWallington Primary School, WALLINGTONTAFE</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: Strathmore PS TheirCare STRATHMORE</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Last Update: 12 August 2020</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
-        <is>
-          <t>Schools closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>li: The Department has been advised of the following school closures:</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>li: Al Taqwa College, TRUGANINA</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>li: Beeac Primary School, BEEAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>li: Belmont High School, BELMONT</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>li: Braybrook College, BRAYBROOK</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>li: Carranballac P-9 College, POINT COOK</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>li: Caroline Chilsholm Catholic College, BRAYBROOK</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>li: Catholic Regional College Insitute of Training, SYDENHAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>li: Copperfield College, Sydenham Campus, SYDENHAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>li: Emmanuel College, ALTONA NORTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>li: Footscray North Primary School, FOOTSCRAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>li: Furlong Park School for Deaf Children, SUNSHINE NORTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>li: Geelong Baptist College, LOVELY BANKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>li: Geelong Grammar School (Toorak campus), TOORAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>li: Lakeview Secondary College, CAROLINE SPRINGS</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>li: MacKillop Catholic Regional College, WERRIBEE</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>li: Newcomb Secondary College, NEWCOMB</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>li: Northern Bay P-12 College (Wexford Campus), CORIO</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>li: Parkville College, PARKVILLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>li: Sacred Heart College, NEWTOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>li: St Alban's Secondary College, ST ALBANS</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>li: St Clare's Catholic Primary School, TRUGANINA SOUTH</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>li: St Robert's School, NEWTOWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>li: Stella Maris Catholic Primary School, POINT COOK</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>li: Springside West Secondary College, FRASER RISE</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>li: Stevensville Primary School, ST ALBANS</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>li: Strathmore Secondary College, STRATHMORE</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>li: Sunshine College, SUNSHINE</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>li: Tarneit Rise Primary School, TARNEIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>li: The Grange P-12, HOPPERS CROSSING</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>li: Victorian College of the Arts, SOUTHBANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>li: Wallington Primary School, WALLINGTON</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>li: Western Heights Secondary College, HAMLYN HEIGHTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>TAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>li: Last Update: 11 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2379,29 +2078,29 @@
         </is>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A248"/>
+  <dimension ref="A1:A261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 12 August:South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 13 August, as at 1:35pm:South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -684,1391 +684,1482 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Mentone Grammar School MENTONE</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Officer Child Care Centre OFFICER</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Mentone Grammar School MENTONE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Time 4 Tots Early Learning Centre PAKENHAM</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Windermere Early Learning Centre FRANKSTON</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Beaconhills Christian College Berwick Campus, BERWICKCarwatha College P-12, NOBLE PARKDandenong High School, DANDENONGGleneagles Secondary College, ENDEAVOUR HILLSHampton Park Secondary College, HAMPTON PARKKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHPakenham Primary School, PAKENHAMTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Windermere Early Learning Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
+          <t>Beaconhills Christian College Berwick Campus, BERWICKCommunity College Gippsland Ltd ECG Community College, PAKENHAMHampton Park Secondary College, HAMPTON PARKKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: All Saints Preschool Yarra Junction Inc YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Belford Oaks Community Children's Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Genazzano FCJ College KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Genazzano FCJ College KEW</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Selby Community House SELBY</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Glen Waverley Secondary College, GLEN WAVERLEYMater Christi College, BELGRAVEMooroolbark College, MOOROOLBARKTAFE</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Selby Community House SELBY</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Brunswick Kindergarten BRUNSWICK</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Marymede Catholic College OSHC SOUTH MORANG</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Epping North YMCA Early Learning Centre, Harvest Home YMCA Before and After School Program, Epping North YMCA Holiday Program EPPING NORTH</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Harbard Street Kindergarten THOMASTOWN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Coburg OSHClub COBURG</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Harbard Street Kindergarten THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Preston  PRESTON</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Riddells Creek Primary Outside School Hours Care RIDDELLS CREEK</t>
+          <t>li: Meadowglen PS TheirCare EPPING</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: St Kilian's Primary YMCA Outside School Hours Care BENDIGO</t>
+          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: St. Francis of the Fields Primary YMCA Outside School Hours Care STRATHFIELDSAYE</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Viewbank OSHClub VIEWBANK</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: St Kilian's Primary YMCA Outside School Hours Care BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCoburg Primary School, COBURGCoburg North Primary School, COBURGCoburg West Primary School, COBURGEpping Secondary College, EPPINGHume Valley School, BROADMEADOWSKyneton High School, KYNETONLalor North Secondary College, EPPINGLalor Secondary College, LALORMeadowglen Primary School, EPPINGMorang South Primary School, SOUTH MORANGSacred Heart College, KYNETONSt Gabriel's Primary School, RESERVOIRSunbury Downs Secondary College, SUNBURYThornbury Primary School, THORNBURYViewbank College, VIEWBANKWilliam Ruthven Secondary College, RESERVIORTAFE</t>
+          <t>li: St. Francis of the Fields Primary YMCA Outside School Hours Care STRATHFIELDSAYE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Overnewton Anglican Community College OSHC TAYLORS LAKES</t>
+          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCoburg North Primary School, COBURGCoburg West Primary School, COBURGEpping Secondary College, EPPINGKyneton High School, KYNETONLalor North Secondary College, EPPINGMeadowglen Primary School, EPPINGMorang South Primary School, SOUTH MORANGSacred Heart College, KYNETONThornbury Primary School, THORNBURYWilliam Ruthven Secondary College, RESERVIORTAFE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Kids World Child Care Centre WERRIBEE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: St Monica's OSHClub MOONEE PONDS</t>
+          <t>li: Kids World Child Care Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Strathmore PS TheirCare STRATHMORE</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: Lucas Kindergarten LUCAS</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Melton World of Learning MELTON</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYFurlong Park School for Deaf Children, SUNSHINE NORTHGeelong Grammar School (Toorak campus), TOORAKLakeview Secondary College, CAROLINE SPRINGSMacKillop Catholic Regional College, WERRIBEEParkville College, PARKVILLESpringside West Secondary College, FRASER RISEStevensville Primary School, ST ALBANSTarneit Rise Primary School, TARNEITVictorian College of the Arts, SOUTHBANKWallington Primary School, WALLINGTONTAFE</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>li: Last Update: 12 August 2020</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
+        <is>
+          <t>li: Winchelsea Primary School Winchelsea</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Schools closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>li: The Department has been advised of the following school closures:</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYFurlong Park School for Deaf Children, SUNSHINE NORTHGeelong Grammar School (Toorak campus), TOORAKMacKillop Catholic Regional College, WERRIBEEParkville College, PARKVILLESpringside West Secondary College, FRASER RISEStevensville Primary School, ST ALBANSTarneit Rise Primary School, TARNEITVictorian College of the Arts, SOUTHBANKTAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>li: Last Update: 13 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2078,29 +2169,29 @@
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A261"/>
+  <dimension ref="A1:A262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 13 August, as at 1:35pm:South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 14 August, as at 5:45pm (13 August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -642,1556 +642,1563 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Community Kids Narre Warren Early Education Centre NARRE WARREN SOUTH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Hampton Park - Somerville Road HAMPTON PARK</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Guardian Childcare &amp; Education Elsternwick ELSTERNWICK</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Mentone Grammar School MENTONE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Mentone Grammar School MENTONE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Windermere Early Learning Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Windermere Early Learning Centre FRANKSTON</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Beaconhills Christian College Berwick Campus, BERWICKCommunity College Gippsland Ltd ECG Community College, PAKENHAMKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Beaconhills Christian College Berwick Campus, BERWICKCommunity College Gippsland Ltd ECG Community College, PAKENHAMHampton Park Secondary College, HAMPTON PARKKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: All Saints Preschool Yarra Junction Inc YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: All Saints Preschool Yarra Junction Inc YARRA JUNCTION</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Belford Oaks Community Children's Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Belford Oaks Community Children's Centre KEW</t>
+          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Genazzano FCJ College KEW</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Genazzano FCJ College KEW</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Selby Community House SELBY</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Selby Community House SELBY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Coburg OSHClub COBURG</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Harbard Street Kindergarten THOMASTOWN</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Epping Views Kindergarten EPPING</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Harbard Street Kindergarten THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Meadowglen PS TheirCare EPPING</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Morang South PS TheirCare SOUTH MORANG</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Meadowglen PS TheirCare EPPING</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: St Kilian's Primary YMCA Outside School Hours Care BENDIGO</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: St. Francis of the Fields Primary YMCA Outside School Hours Care STRATHFIELDSAYE</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: The Grove Children's Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: The Stables Kindergarten MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Catherine McAuley College (St Mary's Campus), BENDIGOCoburg North Primary School, COBURGCoburg West Primary School, COBURGEpping Secondary College, EPPINGKyneton High School, KYNETONLalor North Secondary College, EPPINGMeadowglen Primary School, EPPINGMorang South Primary School, SOUTH MORANGSacred Heart College, KYNETONThornbury Primary School, THORNBURYWilliam Ruthven Secondary College, RESERVIORTAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>Catherine McAuley College (St Mary's Campus), BENDIGOConcord School, BUNDOORAConcord Junior Campus, WATSONIAKyneton High School, KYNETONLalor North Secondary College, EPPINGMorang South Primary School, SOUTH MORANGRichmond West Primary School, RICHMONDSacred Heart College, KYNETONThornbury Primary School, THORNBURYWilliam Ruthven Secondary College, RESERVIORTAFE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit P-9 College OSHC TARNEIT</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Busy Bees at Williams Landing WILLIAMS LANDING</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Kids World Child Care Centre WERRIBEE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Kids World Child Care Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Lucas Kindergarten LUCAS</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Mandama Primary School Combined OSHC GROVEDALE</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Lucas Kindergarten LUCAS</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: Melton World of Learning MELTON</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Melton World of Learning MELTON</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYFurlong Park School for Deaf Children, SUNSHINE NORTHGeelong Grammar School (Toorak campus), TOORAKMacKillop Catholic Regional College, WERRIBEEParkville College, PARKVILLESpringside West Secondary College, FRASER RISEStevensville Primary School, ST ALBANSTarneit Rise Primary School, TARNEITVictorian College of the Arts, SOUTHBANKTAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMCreekside K-9 College, CAROLINE SPRINGSEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYGeelong Grammar School (Toorak campus), TOORAKMacKillop Catholic Regional College, WERRIBEEMelton Special School, MELTONParkville College, PARKVILLESpringside West Secondary College, FRASER RISETarneit Rise Primary School, TARNEITTAFE</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>li: Last Update: 13 August 2020</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
+        <is>
+          <t>li: Last Update: 13 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State                                                                    &lt;/a&gt;-                             &lt;/li&gt;Support linksHelp in your languageAccessibilityPrivacyCopyrightContact linksContact usReport a website issue</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
+                             &lt;/li&gt;Support linksHelp in your languageAccessibilityPrivacyCopyrightDisclaimerContact linksContact usReport a website issue</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A262"/>
+  <dimension ref="A1:A250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 14 August, as at 5:45pm (13 August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 17 August, (as at 7:45pm,15August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -467,1706 +467,1622 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Pakenham PS OSHC PAKENHAM</t>
+          <t>li: Bluebird Early Education Casey Fields CRANBOURNE EAST</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education Casey Fields CRANBOURNE EAST</t>
+          <t>li: Botany Park Preschool CARRUM DOWNS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Botany Park Preschool CARRUM DOWNS</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Brighton Playroom Association BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Brighton Playroom Association BRIGHTON</t>
+          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
+          <t>li: Camp Australia - East Bentleigh Primary School OSHC BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - East Bentleigh Primary School OSHC BENTLEIGH EAST</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Community Kids Narre Warren Early Education Centre NARRE WARREN SOUTH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Community Kids Narre Warren Early Education Centre NARRE WARREN SOUTH</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Kids Company - Cheltenham CHELTENHAM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Mentone Grammar School MENTONE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Mentone Grammar School MENTONE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Moe P.L.A.C.E. MOE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Windermere Early Learning Centre FRANKSTON</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>Beaconhills Christian College Berwick Campus, BERWICKCommunity College Gippsland Ltd ECG Community College, PAKENHAMKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Beaconhills Christian College Berwick Campus, BERWICKCommunity College Gippsland Ltd ECG Community College, PAKENHAMKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: All Saints Preschool Yarra Junction Inc YARRA JUNCTION</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Belford Oaks Community Children's Centre KEW</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Bellevue Kindergarten BALWYN NORTH</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Bimbadeen Preschool MOOROOLBARK</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Doncaster East Preschool Centre DONCASTER EAST</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Genazzano FCJ College KEW</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Selby Community House SELBY</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Meadowglen PS TheirCare EPPING</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Epping Views Kindergarten EPPING</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Harbard Street Kindergarten THOMASTOWN</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Meadowglen PS TheirCare EPPING</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: The Grove Children's Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
+          <t>li: Thornbury Learning Centre THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Rupert Street Child Care &amp; Kindergarten - BUC COLLINGWOOD</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>Catherine McAuley College (St Mary's Campus), BENDIGOConcord School, BUNDOORAConcord Junior Campus, WATSONIAKyneton High School, KYNETONLalor North Secondary College, EPPINGMorang South Primary School, SOUTH MORANGRichmond West Primary School, RICHMONDSacred Heart College, KYNETONThornbury Primary School, THORNBURYWilliam Ruthven Secondary College, RESERVIORTAFE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: The Grove Children's Centre COBURG</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: The Stables Kindergarten MILL PARK</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Catherine McAuley College (St Mary's Campus), BENDIGOConcord School, BUNDOORAConcord Junior Campus, WATSONIAKyneton High School, KYNETONLalor North Secondary College, EPPINGMorang South Primary School, SOUTH MORANGRichmond West Primary School, RICHMONDSacred Heart College, KYNETONThornbury Primary School, THORNBURYWilliam Ruthven Secondary College, RESERVIORTAFE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Busy Bees at Williams Landing WILLIAMS LANDING</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Busy Bees at Williams Landing WILLIAMS LANDING</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Lucas Kindergarten LUCAS</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Melton World of Learning MELTON</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Kids World Child Care Centre WERRIBEE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Lucas Kindergarten LUCAS</t>
+          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: Melton World of Learning MELTON</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMCreekside K-9 College, CAROLINE SPRINGSEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYGeelong Grammar School (Toorak campus), TOORAKMacKillop Catholic Regional College, WERRIBEEMelton Special School, MELTONParkville College, PARKVILLESpringside West Secondary College, FRASER RISETarneit Rise Primary School, TARNEITTAFE</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Last Update: 15 August 2020</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
-        <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Schools closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>li: The Department has been advised of the following school closures:</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMCreekside K-9 College, CAROLINE SPRINGSEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYGeelong Grammar School (Toorak campus), TOORAKMacKillop Catholic Regional College, WERRIBEEMelton Special School, MELTONParkville College, PARKVILLESpringside West Secondary College, FRASER RISETarneit Rise Primary School, TARNEITTAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>li: Last Update: 13 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2176,29 +2092,29 @@
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A250"/>
+  <dimension ref="A1:A244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 17 August, (as at 7:45pm,15August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 18 August, (as at 9:30am,18August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -628,1461 +628,1419 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Community Kids Narre Warren Early Education Centre NARRE WARREN SOUTH</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Kids Company - Cheltenham CHELTENHAM</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Mentone Grammar School MENTONE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Mentone Grammar School MENTONE</t>
+          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Moe P.L.A.C.E. MOE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>Schools</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>Beaconhills Christian College Berwick Campus, BERWICKLavalla Catholic College, TRARALGONTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Beaconhills Christian College Berwick Campus, BERWICKCommunity College Gippsland Ltd ECG Community College, PAKENHAMKatandra School Special School, ORMONDLighthouse Chrstian College Cranbourne, CRANBOURNEMt Hira College, KEYSBOROUGHTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Clever Kids Childcare - Ashburton ASHBURTON</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Highvale Kindergarten GLEN WAVERLEY</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Boroondara Kindergarten RICHMOND NORTH</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Meadowglen PS TheirCare EPPING</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Bundoora BUNDOORA</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: The Grove Children's Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: St Francis of Assisi Out of School Care Program MILL PARK</t>
+          <t>li: Woodend Kindergarten WOODEND</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: The Grove Children's Centre COBURG</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Thornbury Learning Centre THORNBURY</t>
+          <t>Concord School, BUNDOORAConcord Junior Campus, WATSONIA</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: Brunswick East Primary School, BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Catherine McAuley College (St Mary's Campus), BENDIGOConcord School, BUNDOORAConcord Junior Campus, WATSONIAKyneton High School, KYNETONLalor North Secondary College, EPPINGMorang South Primary School, SOUTH MORANGRichmond West Primary School, RICHMONDSacred Heart College, KYNETONThornbury Primary School, THORNBURYWilliam Ruthven Secondary College, RESERVIORTAFE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Anderson Road Child Care Centre ALBION</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Tarneit Rise PS OSHC TARNEIT</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Busy Bees at Williams Landing WILLIAMS LANDING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Footscray North Primary School OSHC Footscray</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Andrews Primary School OSHC WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Stella Maris Catholic Primary School OSHC POINT COOK</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Goodstart Early Learning Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Leading Leaps PTY LTD TARNEIT</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Point Cook - Shaftsbury Boulevard POINT COOK</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Lucas Kindergarten LUCAS</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Lucas Kindergarten LUCAS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Melton World of Learning MELTON</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>Al Taqwa College, TRUGANINACaroline Chisholm Catholic College, BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Pa</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: The Grange Community Centre HOPPERS CROSSING</t>
+          <t>rkville College, PARKVILLEWoodmans Hill Secondary College, BALLARAT EASTTAFE</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAAlfredton Primary School, ALFREDTONCaroline Chisholm Catholic College, BRAYBROOKCarranballac P-9 College, POINT COOKCatholic Regional College Institute of Training, SYDENHAMCreekside K-9 College, CAROLINE SPRINGSEmmanuel College, ALTONA NORTHFootscray North Primary School, FOOTSCRAYGeelong Grammar School (Toorak campus), TOORAKMacKillop Catholic Regional College, WERRIBEEMelton Special School, MELTONParkville College, PARKVILLESpringside West Secondary College, FRASER RISETarneit Rise Primary School, TARNEITTAFE</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: Last Update: 17 August 2020</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>li: Last Update: 15 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2092,29 +2050,29 @@
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A244"/>
+  <dimension ref="A1:A247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 18 August, (as at 9:30am,18August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 19 August, (as at 9:15am,19August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -614,1433 +614,1454 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Mentone Grammar School MENTONE</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Nido Early School Cranbourne CRANBOURNE</t>
+          <t>li: Mentone Grammar School MENTONE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Schools</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>SchoolsThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Beaconhills Christian College Berwick Campus, BERWICKLavalla Catholic College, TRARALGONTAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Carey Donvale OSHClub DONVALE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Vermont Primary School Kindergarten VERMONT</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Vermont Primary School Kindergarten VERMONT</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Boroondara Kindergarten RICHMOND NORTH</t>
+          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Boroondara Kindergarten RICHMOND NORTH</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Nino Early Learning Adventures - Mickleham MICKLEHAM</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: The Grove Children's Centre COBURG</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Woodend Kindergarten WOODEND</t>
+          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Grove Children's Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Concord School, BUNDOORAConcord Junior Campus, WATSONIA</t>
+          <t>li: Woodend Kindergarten WOODEND</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Brunswick East Primary School, BRUNSWICK EAST</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>Bethal Primary School, MEADOW HEIGHTSBrunswick East Primary School, BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Carlton North Primary School, CARLTON</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Concord School, BUNDOORA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Thornbury High, THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Anderson Road Child Care Centre ALBION</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Anderson Road Child Care Centre ALBION</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare’s Catholic Primary School Truganina OSHC TRUGANINA</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Sydenham SYDENHAM</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Goodstart Early Learning Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Leading Leaps PTY LTD TARNEIT</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Lucas Kindergarten LUCAS</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINACaroline Chisholm Catholic College, BRAYBROOK</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Pa</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>rkville College, PARKVILLEWoodmans Hill Secondary College, BALLARAT EASTTAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: Pa</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>rkville College (Malmsbury campus), PARKVILLEParkville College (Parkville campus), PARKVILLEWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: Last Update: 17 August 2020</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>li: Last Update: 18 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2050,29 +2071,29 @@
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
     <row r="244">
       <c r="A244" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A247"/>
+  <dimension ref="A1:A249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 20 August, (as at 9:30am, 20August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 21 August, (as at 10:20am, 21August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -915,14 +915,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Dandenong North Primary School, DANDENONG</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>li: St Kilda Park Primary School, ST KILDA</t>
         </is>
       </c>
     </row>
@@ -964,91 +964,91 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aussie Kindies Early Learning Kilsyth KILSYTH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Carey Donvale OSHClub DONVALE</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
@@ -1188,880 +1188,894 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Greater Shepparton Secondary College (Wanganui Park campus), SHEPPARTON</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Academy For Kids RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Boroondara Kindergarten RICHMOND NORTH</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Boroondara Kindergarten RICHMOND NORTH</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
+          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
+          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Moreland Kindergarten COBURG</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Nara Community Early Learning Centre PRESTON</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Bethal Primary School, MEADOW HEIGHTS</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Thornbury High, THORNBURY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Alphington Grammar School, ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Thornbury High School, THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Anderson Road Child Care Centre ALBION</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
+          <t>li: Anderson Road Child Care Centre ALBION</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Sydenham SYDENHAM</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Torquay Early Learning Centre TORQUAY</t>
+          <t>li: Strathmore Children's Centre STRATHMORE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Torquay Early Learning Centre TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINA</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: Pa</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>rkville College (Malmsbury campus), PARKVILLEParkville College (Parkville campus), PARKVILLEWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Pa</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>li: Last Update: 19 August 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>li: Last Update: 21 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2071,29 +2085,29 @@
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 21 August, (as at 10:20am, 21August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 24 August, (as at 6:00pm, 21August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -460,1622 +460,1545 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education Casey Fields CRANBOURNE EAST</t>
+          <t>li: Botany Park Preschool CARRUM DOWNS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>li: Botany Park Preschool CARRUM DOWNS</t>
+          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>li: Brighton Grammar OSHClub BRIGHTON</t>
+          <t>li: Brighton Playroom Association BRIGHTON</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>li: Brighton Playroom Association BRIGHTON</t>
+          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aspendale Primary School OSHC ASPENDALE</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - East Bentleigh Primary School OSHC BENTLEIGH EAST</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
+          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Dingley Village Neighbourhood Centre DINGLEY VILLAGE</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: Geelong Grammar School Toorak Campus TOORAK</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Mentone Grammar School MENTONE</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>SchoolsThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: St Kilda Park Primary School, ST KILDA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SchoolsThe Department has been advised of the following school closures:</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: St Kilda Park Primary School, ST KILDA</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aussie Kindies Early Learning Kilsyth KILSYTH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Aussie Kindies Early Learning Kilsyth KILSYTH</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Academy For Kids RESERVOIR</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
+          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Boroondara Kindergarten RICHMOND NORTH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Coburg North Primary School Out of Hours Care COBURG</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Concord Watsonia School TheirCare WATSONIA</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Moreland Kindergarten COBURG</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Moreland Kindergarten COBURG</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Nara Community Early Learning Centre PRESTON</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Alphington Grammar School, ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Thornbury High School, THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Alphington Grammar School, ALPHINGTON</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Thornbury High School, THORNBURY</t>
+          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Anderson Road Child Care Centre ALBION</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Kids Club Kensington Early Learning Centre KENSINGTON</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Torquay Early Learning Centre TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Wingate Avenue Community Centre ASCOT VALE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>Al Taqwa College, TRUGANINA</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Pa</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Strathmore Children's Centre STRATHMORE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: Torquay Early Learning Centre TORQUAY</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Last Update: 21 August 2020</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
-        <is>
-          <t>Al Taqwa College, TRUGANINA</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>li: Pa</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>li: Last Update: 21 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2085,29 +2008,29 @@
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A238"/>
+  <dimension ref="A1:A236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 24 August, (as at 6:00pm, 21August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 24 August, (as at 9:30am, 24August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -894,1111 +894,1097 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: St Kilda Park Primary School, ST KILDA</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Aussie Kindies Early Learning Kilsyth KILSYTH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aussie Kindies Early Learning Kilsyth KILSYTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
+          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
+          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
+          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Moreland Kindergarten COBURG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Moreland Kindergarten COBURG</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Apollo Parkways Primary School, GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Alphington Grammar School, ALPHINGTON</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Thornbury High School, THORNBURY</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Torquay Early Learning Centre TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Torquay Early Learning Centre TORQUAY</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Wingate Avenue Community Centre ASCOT VALE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Wingate Avenue Community Centre ASCOT VALE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>Al Taqwa College, TRUGANINACoburn Primary School, MELTON SOUTHMelton Specialist School, MELTON</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Pa</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINA</t>
+          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGWyndham Central Secondary College, WERRIBEETAFE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Pa</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Last Update: 23 August 2020</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>li: Last Update: 21 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2008,29 +1994,29 @@
         </is>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A236"/>
+  <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 24 August, (as at 9:30am, 24August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 25 August, (as at 6:15pm, 24August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Melbourne Grammar School, Grimwade House CAULFIELD</t>
+          <t>li: Little Saints Early Learning Centre PAKENHAM</t>
         </is>
       </c>
     </row>
@@ -929,1062 +929,992 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aussie Kindies Early Learning Kilsyth KILSYTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Knox Park Primary School OSHC KNOXFIELD</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bluebird Early Education South Morang SOUTH MORANG</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Joseph's Primary School - Bendigo OSHC BENDIGO</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Moreland Kindergarten COBURG</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Moreland Kindergarten COBURG</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Apollo Parkways Primary School, GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: St Joseph's OSHClub BRUNSWICK WEST</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Apollo Parkways Primary School, GREENSBOROUGH</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Busy Bees at Wyndham Vale WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Creekside CAROLINE SPRINGS</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Harmony Early Learning Journey Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Lavers Hill and District Preschool LAVERS HILL</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>Al Taqwa College, TRUGANINACoburn Primary School, MELTON SOUTHMelton Specialist School, MELTON</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Pa</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGWyndham Central Secondary College, WERRIBEETAFE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Torquay Early Learning Centre TORQUAY</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Wingate Avenue Community Centre ASCOT VALE</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINACoburn Primary School, MELTON SOUTHMelton Specialist School, MELTON</t>
+          <t>li: Last Update: 24 August 2020</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
-        <is>
-          <t>li: Pa</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGWyndham Central Secondary College, WERRIBEETAFE</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>li: Last Update: 23 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1994,29 +1924,29 @@
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 25 August, (as at 6:15pm, 24August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 26 August, (as at 10:15am, 26August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -558,1363 +558,1377 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Community Kids Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Saints Early Learning Centre PAKENHAM</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Little Saints Early Learning Centre PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SchoolsThe Department has been advised of the following school closures:</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>SchoolsThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Dandenong North Primary School, DANDENONG</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Mandalay Early Learning Centre BEVERIDGE</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Big Childcare - Carlton North PS OSHC CARLTON NORTH</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Brunswick East Primary School OSHC Service BRUNSWICK EAST</t>
+          <t>li: Abacus Child Care Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Moreland Kindergarten COBURG</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: St Bernard's Out of School Hours Care COBURG EAST</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Thornbury Primary School Combined OSHC THORNBURY</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Apollo Parkways Primary School, GREENSBOROUGH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Apollo Parkways Primary School, GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Anderson Road Child Care Centre ALBION</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Busy Bees at Wyndham Vale WYNDHAM VALE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Busy Bees at Wyndham Vale WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Harmony Early Learning Journey Braybrook BRAYBROOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Harmony Early Learning Journey Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Melbourne City Childcare and Kindergarten MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINACoburn Primary School, MELTON SOUTHMelton Specialist School, MELTON</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Pa</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>rkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGWyndham Central Secondary College, WERRIBEETAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Last Update: 24 August 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>li: Last Update: 26 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1924,29 +1938,29 @@
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A228"/>
+  <dimension ref="A1:A230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 26 August, (as at 10:15am, 26August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 27 August, (as at 12:45pm, 27August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -971,301 +971,301 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Abacus Child Care Centre GREENSBOROUGH</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Abacus Child Care Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Abbotsford Primary School OSHC ABBOTSFORD</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
@@ -1496,439 +1496,453 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Apollo Parkways Primary School, GREENSBOROUGH</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Anderson Road Child Care Centre ALBION</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Anderson Road Child Care Centre ALBION</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Busy Bees at Wyndham Vale WYNDHAM VALE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Busy Bees at Wyndham Vale WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Harmony Early Learning Journey Braybrook BRAYBROOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Harmony Early Learning Journey Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Melbourne City Childcare and Kindergarten MELBOURNE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Melbourne City Childcare and Kindergarten MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Last Update: 26 August 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: Last Update: 27 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1938,29 +1952,29 @@
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A230"/>
+  <dimension ref="A1:A231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 27 August, (as at 12:45pm, 27August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 28 August, (as at 10:45am, 28August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -628,469 +628,469 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Community Kids Cranbourne CRANBOURNE</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Little Saints Early Learning Centre PAKENHAM</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>Schools closedThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Korowa Anglican Girl's School, GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SchoolsThe Department has been advised of the following school closures:</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Dandenong North Primary School, DANDENONG</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Insight Early Learning - Burwood Brickworks BURWOOD EAST</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
@@ -1804,145 +1804,152 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), MALMBSURYParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Last Update: 27 August 2020</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
+        <is>
+          <t>li: Last Update: 28 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1952,29 +1959,29 @@
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A231"/>
+  <dimension ref="A1:A224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 28 August, (as at 10:45am, 28August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 31 Augst, (as at 11:10am, 31August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -558,308 +558,308 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Starfish Early Learning Centre (Springvale) SPRINGVALE</t>
         </is>
       </c>
     </row>
@@ -887,1069 +887,1020 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Korowa Anglican Girl's School, GLEN IRIS</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Insight Early Learning - Burwood Brickworks BURWOOD EAST</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Insight Early Learning - Burwood Brickworks BURWOOD EAST</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Abacus Child Care Centre GREENSBOROUGH</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Fidelis Primary School OSHC COBURG</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Anderson Road Child Care Centre ALBION</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Busy Bees at Wyndham Vale WYNDHAM VALE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Coburn Primary School OSHClub MELTON SOUTH</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Harmony Early Learning Journey Braybrook BRAYBROOK</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Melbourne City Childcare and Kindergarten MELBOURNE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Last Update: 31 August 2020</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>li: Last Update: 28 August 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1959,29 +1910,29 @@
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A224"/>
+  <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 31 Augst, (as at 11:10am, 31August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 1 September, (as at 10:30pm, 31August)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1139,768 +1139,782 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Romsey Kindergarten ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Last Update: 31 August 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>li: Last Update: 31 August 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1910,29 +1924,29 @@
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 1 September, (as at 10:30pm, 31August)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 2 September, (as at 7:10pm, 1 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -488,889 +488,889 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
+          <t>li: Camp Australia - East Bentleigh Primary School OSHC BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
+          <t>li: Camp Australia - Geelong Grammar School Toorak Campus OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Haileybury Edrington OSHC BERWICK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
+          <t>li: Camp Australia - Haileybury Newlands OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
+          <t>li: Camp Australia - Keysborough Primary School OSHC SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
+          <t>li: Camp Australia - Loreto College Mandeville Hall OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
+          <t>li: Camp Australia - Mentone Girls' Grammar School OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Mentone Grammar OSHC MENTONE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Peninsula Grammar OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Starfish Early Learning Centre (Springvale) SPRINGVALE</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>Schools closedThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Lighthouse Christian College, CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Insight Early Learning - Burwood Brickworks BURWOOD EAST</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Insight Early Learning - Burwood Brickworks BURWOOD EAST</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>North-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Holy Rosary Primary YMCA Outside School Hours Care WHITE HILLS</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
@@ -1440,280 +1440,280 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Romsey Kindergarten ROMSEY</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>Al Taqwa College, TRUGANINAFlemingtion Primary School, FLEMINGTOMParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Last Update: 31 August 2020</t>
+          <t>li: Last Update: 01 September 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 2 September, (as at 7:10pm, 1 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 3 September, (as at 10:30am, 3 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1601,320 +1601,334 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Flemington Primary School OSHC FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Gowrie Victoria Clare Court YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAFlemingtion Primary School, FLEMINGTOMParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Al Taqwa College, TRUGANINAFlemingtion Primary School, FLEMINGTOMParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Last Update: 01 September 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>li: Last Update: 03 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1924,29 +1938,29 @@
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A228"/>
+  <dimension ref="A1:A229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 3 September, (as at 10:30am, 3 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 4 September, (as at 11:00am, 4 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -565,14 +565,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - St Clare's Primary School Pakenham OSHC Officer</t>
         </is>
       </c>
     </row>
@@ -873,203 +873,203 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: ST CLARE'S EARLY LEARNING CENTRE OFFICER</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Lighthouse Christian College, CRANBOURNE</t>
+          <t>Schools closedThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: St Clare's Primary School, OFFICER</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Insight Early Learning - Burwood Brickworks BURWOOD EAST</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
@@ -1195,14 +1195,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures</t>
+          <t>li: Glendal Primary School, GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
@@ -1349,586 +1349,593 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Flemington Primary School OSHC FLEMINGTON</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Flemington Primary School OSHC FLEMINGTON</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Gowrie Victoria Clare Court YARRAVILLE</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Gowrie Victoria Clare Court YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAFlemingtion Primary School, FLEMINGTOMParkville College (Malmsbury campus), PARKVILLEParkville College (Collingwood campus), COLLINGWOODWarringa Park School (Warringa Crescent campus), HOPPERS CROSSINGTAFE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>Al Taqwa College, TRUGANINABethany Catholic Primary School, GLENMORE PARKParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Last Update: 03 September 2020</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
+        <is>
+          <t>li: Last Update: 04 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1938,29 +1945,29 @@
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A229"/>
+  <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 4 September, (as at 11:00am, 4 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 7 September, (as at 10:50am, 7 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -873,126 +873,126 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: ST CLARE'S EARLY LEARNING CENTRE OFFICER</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>Schools closedThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: St Clare's Primary School, OFFICER</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: St Clare's Primary School, OFFICER</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
@@ -1006,175 +1006,175 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Croydon Central Kindergarten CROYDON</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Camp Australia - Glendal Primary School OSHC GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
@@ -1237,147 +1237,147 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Goodstart Early Learning Sunbury - Barkly Street SUNBURY</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
@@ -1391,551 +1391,530 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: St John XXII Primary School, THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has notbeen advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aspire Early Education Atherstone Estate STRATHTULLOH</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Flemington Primary School OSHC FLEMINGTON</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Gowrie Victoria Clare Court YARRAVILLE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>Al Taqwa College, TRUGANINAMother of God School, ARDEERParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINABethany Catholic Primary School, GLENMORE PARKParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: Last Update: 07 September 2020</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>li: Last Update: 04 September 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1945,29 +1924,29 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
     <row r="226">
       <c r="A226" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 7 September, (as at 10:50am, 7 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 8 September, (as at 10:30am, 8 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -929,70 +929,70 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Camp Australia - Glendal Primary School OSHC GLEN WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
@@ -1006,56 +1006,56 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Croydon Central Kindergarten CROYDON</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
@@ -1069,49 +1069,49 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
@@ -1125,56 +1125,56 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Croydon Central Kindergarten CROYDON</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Glendal Primary School OSHC GLEN WAVERLEY</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
@@ -1195,14 +1195,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of the following school closures:</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Glendal Primary School, GLEN WAVERLEY</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
@@ -1237,133 +1237,133 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
@@ -1377,544 +1377,572 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: St Johns XXIII OSHClub Thomastown East THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: St John XXII Primary School, THOMASTOWN</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: The Department has notbeen advised of any TAFE closures.</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has notbeen advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Aspire Early Education Atherstone Estate STRATHTULLOH</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Aspire Early Education Atherstone Estate STRATHTULLOH</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAMother of God School, ARDEERParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Last Update: 07 September 2020</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: Last Update: 08 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1924,29 +1952,29 @@
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A230"/>
+  <dimension ref="A1:A228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 8 September, (as at 10:30am, 8 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 9 September, (as at 12.20pm, 9 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -565,399 +565,399 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare's Primary School Pakenham OSHC Officer</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - St Clare's Primary School Pakenham OSHC Officer</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Toorak Primary School OSHClub TOORAK</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: St Clare's Primary School, OFFICER</t>
+          <t>Schools closedThe Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: St Clare's Primary School, OFFICER</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Glendal Primary School OSHC GLEN WAVERLEY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
@@ -1027,922 +1027,908 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Croydon Central Kindergarten CROYDON</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Hawthorn Early Years HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood services</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: St Johns XXIII OSHClub Thomastown East THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: St Johns XXIII OSHClub Thomastown East THOMASTOWN</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has notbeen advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has notbeen advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aspire Early Education Atherstone Estate STRATHTULLOH</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Aspire Early Education Atherstone Estate STRATHTULLOH</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Inspiring Minds Studio ESSENDON</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Last Update: 09 September 2020</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>li: Last Update: 08 September 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1952,29 +1938,29 @@
         </is>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A228"/>
+  <dimension ref="A1:A220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 9 September, (as at 12.20pm, 9 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 10 September, (as at 10:05am, 10 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -579,1356 +579,1300 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Clare's Primary School Pakenham OSHC Officer</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Toorak Primary School OSHClub TOORAK</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Upper Beaconsfield Community Early Learning Centre BEACONSFIELD UPPER</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Schools closedThe Department has been advised of the following school closures:</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: St Clare's Primary School, OFFICER</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Hawthorn Early Years HAWTHORN</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: St Johns XXIII OSHClub Thomastown East THOMASTOWN</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: The Department has notbeen advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: The Department has notbeen advised of any TAFE closures.</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Aspire Early Education Atherstone Estate STRATHTULLOH</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Cana Catholic Primary OSHClub HILLSIDE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Carranballac OSHClub Boardwalk POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Inspiring Minds Studio ESSENDON</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: Last Update: 10 September 2020</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
-        <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Bus service cancellations or alterations</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>li: Find more about bus services:</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>li: Last Update: 09 September 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1938,29 +1882,29 @@
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 10 September, (as at 10:05am, 10 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 11 September, (as at 10:30am, 11 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Last Update: 10 September 2020</t>
+          <t>li: Last Update: 11 September 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A220"/>
+  <dimension ref="A1:A219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 11 September, (as at 10:30am, 11 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 14 September, (as at 11:00am, 14 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -565,1314 +565,1307 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Camberwell Boys Grammar Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: The Department has notbeen advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Hopetoun Child Care Service HOPETOUN</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Inspiring Minds Studio ESSENDON</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Last Update: 14 September 2020</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
-        <is>
-          <t>li: Last Update: 11 September 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1882,29 +1875,29 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A219"/>
+  <dimension ref="A1:A218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 14 September, (as at 11:00am, 14 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 15 September, (as at 9:50am, 15 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1090,539 +1090,539 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Hopetoun Child Care Service HOPETOUN</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
@@ -1776,96 +1776,89 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>Al Taqwa College, TRUGANINAOur lady of the Southern Cross, MANOR LAKESParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Last Update: 14 September 2020</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
-        <is>
-          <t>li: Last Update: 14 September 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1875,29 +1868,29 @@
         </is>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 15 September, (as at 9:50am, 15 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 16 September, (as at 12:15pm, 16 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Last Update: 14 September 2020</t>
+          <t>li: Last Update: 16 September 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A218"/>
+  <dimension ref="A1:A220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 16 September, (as at 12:15pm, 16 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 17 September, (as at 10:00pm, 16 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -565,553 +565,553 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Club V Kids WARRAGUL</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>li: Cranbourne Community House CRANBOURNE</t>
+          <t>li: Club V Kids WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>li: David Collings Centre MORNINGTON</t>
+          <t>li: Cranbourne Community House CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Clayton CLAYTON</t>
+          <t>li: David Collings Centre MORNINGTON</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
+          <t>li: Fernwood Fitness Clayton CLAYTON</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
+          <t>li: Fernwood Fitness Narre Warren NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
+          <t>li: GEKA Bentleigh Kindergarten BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Caulfield South Kindergarten CAULFIELD SOUTH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
+          <t>li: GEKA Centre Road Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
+          <t>li: GEKA Glover Street Kindergarten BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
+          <t>li: GEKA McKinnon Kindergarten MCKINNON</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
+          <t>li: GEKA Murrumbeena Kindergarten MURRUMBEENA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>li: Genesis Traralgon TRARALGON</t>
+          <t>li: GEKA Orrong Road Kindergarten ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>li: GESAC Childcare BENTLEIGH EAST</t>
+          <t>li: Genesis Traralgon TRARALGON</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>li: Glen Iris Creche GLEN IRIS</t>
+          <t>li: GESAC Childcare BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
+          <t>li: Glen Iris Creche GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
+          <t>li: Goodlife Chelsea Heights CHELSEA HEIGHTS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>li: Goodlife Karingal KARINGAL</t>
+          <t>li: Goodlife Fountain Gate NARRE WARREN</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>li: Hallam Community Centre Inc HALLAM</t>
+          <t>li: Goodlife Karingal KARINGAL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
+          <t>li: Hallam Community Centre Inc HALLAM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
+          <t>li: Hoa Nghiem Primary School SPRINGVALE SOUTH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Lakes Aquadome Creche LAKES ENTRANCE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: VERMONT CHILDREN'S CENTRE VERMONT</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
@@ -1713,152 +1713,166 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAOur lady of the Southern Cross, MANOR LAKESParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has been advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Al Taqwa College, TRUGANINAOur lady of the Southern Cross, MANOR LAKESParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Last Update: 16 September 2020</t>
+          <t>li: Find more about bus services:</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>li: Last Update: 16 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1868,29 +1882,29 @@
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+          <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 17 September, (as at 10:00pm, 16 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 18 September, (as at 10:00am, 17 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Last Update: 16 September 2020</t>
+          <t>li: Last Update: 18 September 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 18 September, (as at 10:00am, 17 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 22 September, (as at 2:10pm, 22 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAOur lady of the Southern Cross, MANOR LAKESParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Last Update: 18 September 2020</t>
+          <t>li: Last Update: 22 September 2020</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A220"/>
+  <dimension ref="A1:A239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Tuesday 22 September, (as at 2:10pm, 22 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 23 September, (as at 9:40am, 23 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sacred Heart Parish School - Sandringham OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
         </is>
       </c>
     </row>
@@ -565,63 +565,63 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sandringham Primary School OSHC SANDRINGHAM</t>
+          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Sirius College - Keysborough OSHC KEYSBOROUGH</t>
+          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Kevins College Toorak OSHC TOORAK</t>
+          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Toorak College OSHC MOUNT ELIZA</t>
+          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh Primary School OSHC FRANKSTON</t>
+          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Woodleigh School Penbank Campus OSHC MOOROODUC</t>
+          <t>li: Cardinia Life PAKENHAM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>li: Cardinia Life PAKENHAM</t>
+          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>li: Carnegie Occasional Care Centre CARNEGIE</t>
+          <t>li: Castlefield Community Centre HAMPTON</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>li: Castlefield Community Centre HAMPTON</t>
+          <t>li: Chelsea Primary School Outside School Hours Care CHELSEA</t>
         </is>
       </c>
     </row>
@@ -775,1104 +775,1237 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>li: Little Beacons Learning Centre - Berwick BERWICK</t>
+          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>li: Little Pelicans - Pelican Park Recreation Centre HASTINGS</t>
+          <t>li: Merkaz Bentleigh BENTLEIGH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>li: Merkaz Bentleigh BENTLEIGH</t>
+          <t>li: Moe Neighbourhood House MOE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>li: Moe Neighbourhood House MOE</t>
+          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>li: Paisley Park Early Learning Centre Cranbourne CRANBOURNE</t>
+          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>li: Pavillion - Frankston &amp; District Netball Association Inc FRANKSTON</t>
+          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>li: Peninsula Aquatic Recreation Centre FRANKSTON</t>
+          <t>li: Play Zone - Highett HIGHETT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>li: Play Zone - Highett HIGHETT</t>
+          <t>li: Playtime Warragul WARRAGUL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>li: Playtime Warragul WARRAGUL</t>
+          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>li: Sacre Coeur Oshclub GLEN IRIS</t>
+          <t>li: Sandybeach Centre SANDRINGHAM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>li: Sandybeach Centre SANDRINGHAM</t>
+          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>li: Singleton Preschool ENDEAVOUR HILLS</t>
+          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>li: Smaland Springvale Ikea SPRINGVALE</t>
+          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>li: Somerville Recreation Centre Child Care SOMERVILLE</t>
+          <t>li: Team Holiday - Berwick BERWICK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: Team Holiday - Elsternwick ELSTERNWICK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Team Holiday - GESAC BENTLEIGH EAST</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Team Holiday - Keysborough KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Team Holiday - Mt Eliza MOUNT ELIZA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: TeamKids - St Leonard's College BRIGHTON EAST</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Yarra Valley Grammar School OSHC RINGWOOD</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Team Holiday - Tintern Grammar RINGWOOD EAST</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: TeamKids - Chatham Primary SURREY HILLS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: TeamKids - Methodist Ladies College KEW</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Bendigo Stadium BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Team Holiday - Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: Team Holiday - Greensborough GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: TeamKids - Community Bank Stadium DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: TeamKids - Ivanhoe Girls Grammar IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Carranballac Jamieson OSHClub POINT COOK</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Inspiring Minds Studio ESSENDON</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Ernst &amp; Young Holiday Program CommunityOSH MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Al Taqwa College, TRUGANINAParkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: Team Holiday - City MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: Team Holiday - City 570 Bourke Street MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: Team Holiday - Southern Cross (Etihad Stadium) DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Last Update: 22 September 2020</t>
+          <t>li: Team Holiday - West Melbourne WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
+        <is>
+          <t>li: Team Holiday - Williamstown WILLIAMSTOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>li: TeamKids - Department of Education and Training EAST MELBOURNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>li: Winchelsea Primary School Winchelsea</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Schools closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>li: The Department has been advised of the following school closures:</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Parkville College (Malmsbury campus), PARKVILLETAFE</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Bus service cancellations or alterations</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>li: Last Update: 22 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -1882,29 +2015,29 @@
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A239"/>
+  <dimension ref="A1:A245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Wednesday 23 September, (as at 9:40am, 23 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 24 September, (as at 10:15am, 24 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -1216,796 +1216,838 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bendigo Stadium BENDIGO</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bendigo Stadium BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Eltham Leisure Centre ELTHAM</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Greensborough GREENSBOROUGH</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: TeamKids - Community Bank Stadium DIAMOND CREEK</t>
+          <t>li: Team Holiday - Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: TeamKids - Ivanhoe Girls Grammar IVANHOE</t>
+          <t>li: Team Holiday - Greensborough GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: TeamKids - Community Bank Stadium DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: TeamKids - Ivanhoe Girls Grammar IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Ernst &amp; Young Holiday Program CommunityOSH MELBOURNE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Ernst &amp; Young Holiday Program CommunityOSH MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Inspiring Minds Studio ESSENDON</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: Team Holiday - City MELBOURNE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: Team Holiday - City 570 Bourke Street MELBOURNE</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Southern Cross (Etihad Stadium) DOCKLANDS</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Team Holiday - West Melbourne WEST MELBOURNE</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Williamstown WILLIAMSTOWN</t>
+          <t>li: Team Holiday - City MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: TeamKids - Department of Education and Training EAST MELBOURNE</t>
+          <t>li: Team Holiday - City 570 Bourke Street MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Team Holiday - Southern Cross (Etihad Stadium) DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
+          <t>li: Team Holiday - West Melbourne WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: Team Holiday - Williamstown WILLIAMSTOWN</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: TeamKids - Department of Education and Training EAST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following school closures:</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Parkville College (Malmsbury campus), PARKVILLETAFE</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>li: Last Update: 22 September 2020</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
+        <is>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>li: Last Update: 24 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2015,29 +2057,29 @@
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>li: State Government of Victoria, Australia © 2019</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 24 September, (as at 10:15am, 24 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 25 September, (as at 9:40am, 25 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A245"/>
+  <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Friday 25 September, (as at 9:40am, 25 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 28 September, (as at 9:25am, 28 September)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -908,1146 +908,1167 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasnotbeen advised of any school closures.TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>Schools closedThe Department hasbeen advised of the following school closures:Chandler Park Primary School, KEYSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: John Paul College, FRANKSTON</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: St John's School, MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Tintern Grammar RINGWOOD EAST</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: TeamKids - Chatham Primary SURREY HILLS</t>
+          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: TeamKids - Methodist Ladies College KEW</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: Team Holiday - Tintern Grammar RINGWOOD EAST</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: TeamKids - Chatham Primary SURREY HILLS</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>li: TeamKids - Methodist Ladies College KEW</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Bendigo Stadium BENDIGO</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Bendigo Stadium BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: Romsey Occasional Care ROMSEY</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
+          <t>li: Richmond West Afterschool Care and Vacation Care Program RICHMOND</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
+          <t>li: Romsey Occasional Care ROMSEY</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Eltham Leisure Centre ELTHAM</t>
+          <t>li: Roxburgh Park Community House &amp; Children's Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Greensborough GREENSBOROUGH</t>
+          <t>li: St Andrews Uniting Church Kindergarten FAIRFIELD</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>li: TeamKids - Community Bank Stadium DIAMOND CREEK</t>
+          <t>li: Swan Hill Leisure Centre SWAN HILL</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>li: TeamKids - Ivanhoe Girls Grammar IVANHOE</t>
+          <t>li: Team Holiday - Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
+          <t>li: Team Holiday - Greensborough GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: TeamKids - Community Bank Stadium DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: TeamKids - Ivanhoe Girls Grammar IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Yarra Warra Preschool WARRANDYTE NORTH</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>South-Western Victoria RegionEarly childhood services</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>li: Aerotots Activity Centre WERRIBEE</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
+          <t>South-Western Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
+          <t>li: Aerotots Activity Centre WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
+          <t>li: Altona Meadows Community Centre Occasional Care ALTONA MEADOWS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>li: Bluewater Leisure Centre Creche COLAC</t>
+          <t>li: Aquapulse Creche HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
+          <t>li: BASC Out of School Hours Care OCEAN GROVE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
+          <t>li: Blackwood Street Neighbourhood House YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
+          <t>li: Bluewater Leisure Centre Creche COLAC</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
+          <t>li: Bridge Road Occasional Care MELTON SOUTH</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
+          <t>li: Camp Australia - Aireys Inlet Primary School OSHC AIREYS INLET</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
+          <t>li: Camp Australia - Baden Powell P-9 College Derrimut Heath Campus OSHC HOPPERS CROSSING</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>li: Eagle Stadium WERRIBEE</t>
+          <t>li: Camp Australia - Christian College Geelong - Surf Coast Campus OSHC TORQUAY</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>li: Energy Force Fitness Creche DRYSDALE</t>
+          <t>li: Camp Australia - Haileybury City Campus OSHC WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>li: Ernst &amp; Young Holiday Program CommunityOSH MELBOURNE</t>
+          <t>li: Camp Australia - Monmia Primary School OSHC KEILOR DOWNS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
+          <t>li: Eagle Stadium WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
+          <t>li: Energy Force Fitness Creche DRYSDALE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>li: Genesis Maidstone MAIDSTONE</t>
+          <t>li: Ernst &amp; Young Holiday Program CommunityOSH MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
+          <t>li: Fernwood Fitness Sydenham SYDENHAM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>li: Goodlife Geelong BELMONT</t>
+          <t>li: Fun 4 All Occasional Care Center WERRIBEE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>li: Goodlife Point Cook POINT COOK</t>
+          <t>li: Genesis Maidstone MAIDSTONE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
+          <t>li: Goodlife Essendon Child Minding ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>li: Inspiring Minds Studio ESSENDON</t>
+          <t>li: Goodlife Geelong BELMONT</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
+          <t>li: Goodlife Point Cook POINT COOK</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
+          <t>li: Goodlife Taylors Lakes TAYLORS LAKES</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
+          <t>li: Inspiring Minds Studio ESSENDON</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
+          <t>li: Iramoo Community Centre Occasional Child Care WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
+          <t>li: Keilor Basketball Stadium Creche KEILOR PARK</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
+          <t>li: Kensington Neighbourhood House Inc KENSINGTON</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>li: Melton Central Occasional Care MELTON</t>
+          <t>li: Kids @ IAG Melbourne Vacation Care MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
+          <t>li: Little Stars at Southern Cross DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
+          <t>li: Maribyrnong Aquatic Centre Occasional Child Care MARIBYRNONG</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>li: New Futures Braybrook BRAYBROOK</t>
+          <t>li: Melton Central Occasional Care MELTON</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>li: Pentland Afterschool Care Program DARLEY</t>
+          <t>li: Melton Waves Leisure Centre Creche MELTON</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
+          <t>li: Myrniong Primary School Outside School Hours Care MYRNIONG</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>li: Shine Early Learning St Albans ST ALBANS</t>
+          <t>li: New Futures Braybrook BRAYBROOK</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
+          <t>li: Pentland Afterschool Care Program DARLEY</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
+          <t>li: Quantin Binnah / Our Lady of the Southern Cross WYNDHAM VALE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
+          <t>li: Shine Early Learning St Albans ST ALBANS</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
+          <t>li: Shuter Street Occasional Care MOONEE PONDS</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>li: Sunshine Leisure Centre SUNSHINE</t>
+          <t>li: South Kingsville Community Centre SOUTH KINGSVILLE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>li: Team Holiday - City MELBOURNE</t>
+          <t>li: South Pacific Health Club Williamstown NEWPORT</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>li: Team Holiday - City 570 Bourke Street MELBOURNE</t>
+          <t>li: Springside Occasional Care CAROLINE SPRINGS</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Southern Cross (Etihad Stadium) DOCKLANDS</t>
+          <t>li: Sunshine Leisure Centre SUNSHINE</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>li: Team Holiday - West Melbourne WEST MELBOURNE</t>
+          <t>li: Team Holiday - City MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Williamstown WILLIAMSTOWN</t>
+          <t>li: Team Holiday - City 570 Bourke Street MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>li: TeamKids - Department of Education and Training EAST MELBOURNE</t>
+          <t>li: Team Holiday - Southern Cross (Etihad Stadium) DOCKLANDS</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
+          <t>li: Team Holiday - West Melbourne WEST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
+          <t>li: Team Holiday - Williamstown WILLIAMSTOWN</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>li: Willaura Primary School OSHC ARARAT</t>
+          <t>li: TeamKids - Department of Education and Training EAST MELBOURNE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>li: Winchelsea Primary School Winchelsea</t>
+          <t>li: Warracknabeal Neighbourhood House Take a Break Child Care Centre WARRACKNABEAL</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
+          <t>li: Westgate Sports &amp; Leisure Centre ALTONA NORTH</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>li: Yarraville Community Centre YARRAVILLE</t>
+          <t>li: Willaura Primary School OSHC ARARAT</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: Winchelsea Primary School Winchelsea</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>li: Wydinia Kindergarten &amp; Early Learning Centre COLAC</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: Yarraville Community Centre YARRAVILLE</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>li: The Department has not been advised of any TAFE closures.</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Bus service cancellations or alterations</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
+          <t>li: The Department has not been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
+          <t>Bus service cancellations or alterations</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>li: Find more about bus services:</t>
+          <t>li: For Term 3 2020, schools bus services will continue to be provided to support student travel to schools where needed.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+          <t>li: With learning from home arrangements, local principals are authorised to cancel or suspend school buses where not required.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>li: Last Update: 24 September 2020</t>
+          <t>li: Families and students are encouraged to contact their school directly to enquire if their bus service is continuing to be provided.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
+        <is>
+          <t>li: Find more about bus services:</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>School bus services in Term 3 (for schools)School bus services in Term 3 (for parents)VicRoadsRegional roadsBack to top</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>li: Last Update: 27 September 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>In this section:- Example left hand nav using current codeHealth, wellbeing and safetyWebsite navigationFor parentsEarly childhoodSchoolsTAFE and trainingThe Department&lt;li&gt;                                  &lt;a href="/about/educationstate"&gt;Education State@@ -2057,29 +2078,29 @@
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>li: State Government of Victoria, Australia © 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
-        </is>
-      </c>
-    </row>
     <row r="245">
       <c r="A245" t="inlineStr">
+        <is>
+          <t>li: State Government of Victoria, Australia © 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>li: We respectfully acknowledge the Traditional Owners of country throughout Victoria and pay respect to the ongoing living cultures of First Peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>li: Our website uses a free tool to translate into other languages. This tool is a guide and may not be accurate. For more, see:</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
         <is>
           <t>Information in your languageOld Search Code PlaceholdCludo Code for www.education.vic.gov.auHotjar Tracking Code for www.education.vic.gov.auSR-1181393</t>
         </is>

--- a/Dep Ed Closures.xlsx
+++ b/Dep Ed Closures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A248"/>
+  <dimension ref="A1:A247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Monday 28 September, (as at 9:25am, 28 September)South-Eastern Victoria RegionEarly childhood services</t>
+          <t>On this pageCurrent school and early childhood service, TAFE closures and relocations:Bus service cancellations or alterationsCurrent school and early childhood service, TAFE closures and relocations for Thursday 1 October, (as at 10:00am, 1 October)South-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
@@ -908,1167 +908,1160 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Schools closedThe Department hasbeen advised of the following school closures:Chandler Park Primary School, KEYSBOROUGH</t>
+          <t>Schools closedThe Department hasbeen advised of the following school closures:</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>li: John Paul College, FRANKSTON</t>
+          <t>li: St John's School, FRANKSTON EAST</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>li: St John's School, MITCHAM</t>
+          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TAFETheDepartment hasnotbeen advised of any TAFE closures.North-Eastern Victoria RegionEarly childhood services</t>
+          <t>li: The Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>li: The Department has been advised of the following early childhood service closures:</t>
+          <t>li: Aqualink Box Hill Creche BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>li: Aqualink Box Hill Creche BOX HILL</t>
+          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>li: Aqualink Nunawading Creche FOREST HILL</t>
+          <t>li: Aquarena Childcare DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>li: Aquarena Childcare DONCASTER</t>
+          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>li: Billanook College - Early Learning Program MOOROOLBARK</t>
+          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Balwyn North Primary School OSHC BALWYN NORTH</t>
+          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Boronia K-12 College OSHC BORONIA</t>
+          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Mountain Gate Primary School OSHC FERNTREE GULLY</t>
+          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Dominics Primary School OSHC CAMBERWELL EAST</t>
+          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Jude the Apostle School OSHC SCORESBY</t>
+          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>li: Camp Australia - St Timothy's School Vermont OSHC VERMONT</t>
+          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Strathcona Baptist Girls Junior School OSHC CANTERBURY</t>
+          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Trinity Grammar OSHC KEW</t>
+          <t>li: Carey OSHClub Kew KEW</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>li: Carey OSHClub Kew KEW</t>
+          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>li: Cathedral College Wangaratta Outside School Hours Care WANGARATTA</t>
+          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>li: Croydon Hills Primary School OSHC Program CROYDON HILLS</t>
+          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>li: Ferntree Gully 3 Year Old Preschool FERNTREE GULLY</t>
+          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>li: Fitness First Doncaster (Playzone) DONCASTER</t>
+          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>li: Flamingo Community Group WANTIRNA SOUTH</t>
+          <t>li: Genesis Creche Wantirna BORONIA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>li: Genesis Creche Wantirna BORONIA</t>
+          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>li: Highmount Kindergarten MOUNT WAVERLEY</t>
+          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>li: JOYFUL LEARNING EARLY LEARNING CENTRE PTY LTD MITCHAM</t>
+          <t>li: Kew Neighbourhood Learning Centre KEW</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>li: Kew Neighbourhood Learning Centre KEW</t>
+          <t>li: Kidz Biz RINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>li: Kidz Biz RINGWOOD</t>
+          <t>li: Kingswood College OSHClub BOX HILL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>li: Kingswood College OSHClub BOX HILL</t>
+          <t>li: Knox Leisureworks BORONIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>li: Knox Leisureworks BORONIA</t>
+          <t>li: Koori First Steps Preschool WODONGA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>li: Koori First Steps Preschool WODONGA</t>
+          <t>li: MakerDojo HAWTHORN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>li: MakerDojo HAWTHORN</t>
+          <t>li: Monbulk Aquatic Centre MONBULK</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>li: Monbulk Aquatic Centre MONBULK</t>
+          <t>li: Playstation CANTERBURY</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>li: Playstation CANTERBURY</t>
+          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>li: Ruyton Early Learning Kindergarten &amp; Pre Prep KEW</t>
+          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>li: St Andrews Christian College Outside School Hours Care WANTIRNA SOUTH</t>
+          <t>li: Team Holiday - Tintern Grammar RINGWOOD EAST</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>li: Team Holiday - Tintern Grammar RINGWOOD EAST</t>
+          <t>li: TeamKids - Chatham Primary SURREY HILLS</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>li: TeamKids - Chatham Primary SURREY HILLS</t>
+          <t>li: TeamKids - Methodist Ladies College KEW</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>li: TeamKids - Methodist Ladies College KEW</t>
+          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>li: Toolamba Outside School Hours Care TOOLAMBA</t>
+          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>li: Wodonga Sports and Leisure Centre WEST WODONGA</t>
+          <t>li: Yarra Centre YARRA JUNCTION</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>li: Yarra Centre YARRA JUNCTION</t>
+          <t>Schools closed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Schools closed</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any school closures.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>li: been advised of any school closures.</t>
+          <t>TAFE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TAFE</t>
+          <t>li: The Department has</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>li: The Department has</t>
+          <t>not</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>li: been advised of any TAFE closures.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>li: been advised of any TAFE closures.</t>
+          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>North-Western Victoria RegionEarly childhood servicesThe Department has been advised of the following early childhood service closures:</t>
+          <t>li: Annadale Community Centre MICKLEHAM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>li: Annadale Community Centre MICKLEHAM</t>
+          <t>li: Bank Street Preschool CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>li: Bank Street Preschool CRAIGIEBURN</t>
+          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>li: Bendigo Community Children's Services Heathcote OSHC HEATHCOTE</t>
+          <t>li: Bendigo Stadium BENDIGO</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>li: Bendigo Stadium BENDIGO</t>
+          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>li: Bluebird Way Child and Family Centre ROXBURGH PARK</t>
+          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>li: Bright Stars Early Years Child Care Centre EPPING</t>
+          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Alphington Grammar School OSHC ALPHINGTON</t>
+          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar OSHC IVANHOE</t>
+          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Ivanhoe Grammar Plenty Valley Campus OSHC MERNDA</t>
+          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Thomastown Meadows Primary School OSHC THOMASTOWN</t>
+          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>li: Camp Australia - Wattle Glen Primary School OSHC WATTLE GLEN</t>
+          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>li: Castlemaine Steiner Kindergarten MUCKLEFORD</t>
+          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>li: Collingwood College Afterschool Care and Vacation Care Program COLLINGWOOD</t>
+          <t>li: Dawson Street Preschool TULLAMARINE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>li: Dawson Street Preschool TULLAMARINE</t>
+          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>li: Diamond Creek Community Centre DIAMOND CREEK</t>
+          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>li: Diamond Valley Sports and Fitness Centre GREENSBOROUGH</t>
+          <t>li: Dobell Avenue Preschool SUNBURY</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>li: Dobell Avenue Preschool SUNBURY</t>
+          <t>li: Edwardes Street Child Minding RESERVOIR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>li: Edwardes Street Child Minding RESERVOIR</t>
+          <t>li: Eltham Leisure Centre ELTHAM</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>li: Eltham Leisure Centre ELTHAM</t>
+          <t>li: Greensborough Preschool GREENSBOROUGH</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>li: Greensborough Preschool GREENSBOROUGH</t>
+          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>li: Gurri Wanyarra Wellbeing Centre KANGAROO FLAT</t>
+          <t>li: Huntly Primary School OSHC HUNTLY</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>li: Huntly Primary School OSHC HUNTLY</t>
+          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>li: Kangaroo Ground Primary Combined OSHC KANGAROO GROUND</t>
+          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>li: Kent Road Uniting Church Preschool PASCOE VALE</t>
+          <t>li: Mildura Waves Leisure Centre MILDURA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>li: Mildura Waves Leisure Centre MILDURA</t>
+          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>li: New Futures Broadmeadows BROADMEADOWS</t>
+          <t>li: New Futures Epping EPPING</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>li: New Futures Epping EPPING</t>
+          <t>li: New Futures Occasional Child Care Centre COBURG</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>li: New Futures Occasional Child Care Centre COBURG</t>
+          <t>li: Newbury Child and Community Centre CRAIGIEBURN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-      